--- a/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$460</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$459</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$131</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$130</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="280">
   <si>
     <t>Payslip</t>
   </si>
@@ -862,12 +862,6 @@
     <t>Moved to Employee Level from request Level</t>
   </si>
   <si>
-    <t>Leave date cannot be before 01/01/2018</t>
-  </si>
-  <si>
-    <t>LeaveDate cannot be earlier than 01/01/2018</t>
-  </si>
-  <si>
     <t>Changed date to 2018</t>
   </si>
   <si>
@@ -22144,7 +22138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -22683,7 +22677,7 @@
         <v>149</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -22692,7 +22686,7 @@
         <v>141</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -22701,16 +22695,16 @@
         <v>82</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="79" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -22719,7 +22713,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -22728,7 +22722,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -22743,7 +22737,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="79"/>
       <c r="C60" s="79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D60" s="80" t="s">
         <v>164</v>
@@ -22782,7 +22776,7 @@
         <v>112</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -22800,11 +22794,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN460"/>
+  <dimension ref="A1:BN459"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -23364,7 +23358,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
@@ -23693,7 +23687,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -24076,7 +24070,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
@@ -24106,13 +24100,13 @@
         <v>1017</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N22" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -24174,7 +24168,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -24204,13 +24198,13 @@
         <v>1018</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N23" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -24456,26 +24450,26 @@
       <c r="BM26" s="21"/>
       <c r="BN26" s="21"/>
     </row>
-    <row r="27" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92">
-        <v>149</v>
+    <row r="27" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>97</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="92" t="s">
+      <c r="C27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="38">
         <v>200</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -24484,132 +24478,132 @@
       <c r="I27" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J27" s="92" t="s">
+      <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="92">
-        <v>2024</v>
-      </c>
-      <c r="M27" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="N27" s="52" t="s">
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="8">
+        <v>4002</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
-      <c r="AR27" s="21"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
-      <c r="BI27" s="21"/>
-      <c r="BJ27" s="21"/>
-      <c r="BK27" s="21"/>
-      <c r="BL27" s="21"/>
-      <c r="BM27" s="21"/>
-      <c r="BN27" s="21"/>
-    </row>
-    <row r="28" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>97</v>
+      <c r="O27" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>143</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G28" s="38">
         <v>200</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="38" t="s">
         <v>219</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="L28" s="38">
+        <v>2050</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="N28" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="O28" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="35"/>
+      <c r="BB28" s="35"/>
+      <c r="BC28" s="35"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="35"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="35"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="35"/>
+      <c r="BJ28" s="35"/>
+      <c r="BK28" s="35"/>
+      <c r="BL28" s="35"/>
+      <c r="BM28" s="35"/>
+      <c r="BN28" s="35"/>
     </row>
     <row r="29" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>246</v>
+      <c r="C29" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>12</v>
@@ -24620,32 +24614,32 @@
       <c r="F29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="38">
-        <v>200</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>219</v>
+      <c r="G29" s="24">
+        <v>400</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="38">
-        <v>2050</v>
+      <c r="K29" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="65">
+        <v>2051</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N29" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="85" t="s">
-        <v>247</v>
+      <c r="O29" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
@@ -24699,18 +24693,18 @@
       <c r="BM29" s="35"/>
       <c r="BN29" s="35"/>
     </row>
-    <row r="30" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
-        <v>144</v>
+    <row r="30" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>20</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>12</v>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>142</v>
@@ -24719,96 +24713,45 @@
         <v>142</v>
       </c>
       <c r="G30" s="24">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="65">
-        <v>2051</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="N30" s="37" t="s">
+      <c r="K30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1010</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="35"/>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="35"/>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="35"/>
-      <c r="AX30" s="35"/>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="35"/>
-      <c r="BC30" s="35"/>
-      <c r="BD30" s="35"/>
-      <c r="BE30" s="35"/>
-      <c r="BF30" s="35"/>
-      <c r="BG30" s="35"/>
-      <c r="BH30" s="35"/>
-      <c r="BI30" s="35"/>
-      <c r="BJ30" s="35"/>
-      <c r="BK30" s="35"/>
-      <c r="BL30" s="35"/>
-      <c r="BM30" s="35"/>
-      <c r="BN30" s="35"/>
+      <c r="O30" s="31" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>142</v>
@@ -24819,7 +24762,7 @@
       <c r="G31" s="24">
         <v>200</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="54" t="s">
         <v>219</v>
       </c>
       <c r="I31" s="24" t="s">
@@ -24829,33 +24772,33 @@
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1010</v>
+        <v>32</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2009</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="5">
-        <v>13</v>
+      <c r="C32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>142</v>
@@ -24878,31 +24821,31 @@
       <c r="K32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="8">
-        <v>2009</v>
+      <c r="L32" s="5">
+        <v>2010</v>
       </c>
       <c r="M32" s="30" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N32" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="31" t="s">
-        <v>35</v>
+      <c r="O32" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>70</v>
+      <c r="C33" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>142</v>
@@ -24923,30 +24866,30 @@
         <v>7</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L33" s="5">
-        <v>2010</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>103</v>
+        <v>2014</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="N33" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>235</v>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>71</v>
@@ -24960,7 +24903,7 @@
       <c r="G34" s="24">
         <v>200</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I34" s="24" t="s">
@@ -24970,13 +24913,13 @@
         <v>7</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L34" s="5">
-        <v>2014</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>236</v>
+        <v>2015</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="N34" s="31" t="s">
         <v>0</v>
@@ -24985,109 +24928,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>26</v>
+    <row r="35" spans="1:66" s="73" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="58">
+        <v>27</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="24" t="s">
+      <c r="C35" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G35" s="24">
         <v>200</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="5">
-        <v>2015</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="31" t="s">
+      <c r="K35" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="61">
+        <v>2016</v>
+      </c>
+      <c r="M35" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O35" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66" s="73" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <v>27</v>
+      <c r="O35" s="59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>31</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="58" t="s">
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G36" s="24">
         <v>200</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J36" s="58" t="s">
+      <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="K36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="61">
-        <v>2016</v>
-      </c>
-      <c r="M36" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="59" t="s">
+      <c r="L36" s="5">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>31</v>
+      <c r="O36" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>134</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>116</v>
+      <c r="C37" s="89" t="s">
+        <v>208</v>
       </c>
       <c r="D37" s="5">
         <v>12</v>
@@ -25111,13 +25054,13 @@
         <v>7</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="5">
-        <v>2017</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="L37" s="26">
+        <v>2048</v>
+      </c>
+      <c r="M37" s="89" t="s">
+        <v>208</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>0</v>
@@ -25126,15 +25069,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>134</v>
+    <row r="38" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>32</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="89" t="s">
-        <v>208</v>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -25158,13 +25101,13 @@
         <v>7</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="26">
-        <v>2048</v>
-      </c>
-      <c r="M38" s="89" t="s">
-        <v>208</v>
+        <v>11</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2018</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="N38" s="31" t="s">
         <v>0</v>
@@ -25173,18 +25116,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>32</v>
-      </c>
-      <c r="B39" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="5">
-        <v>12</v>
+      <c r="C39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="24">
+        <v>16</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>142</v>
@@ -25201,36 +25144,87 @@
       <c r="I39" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="5">
-        <v>2018</v>
-      </c>
-      <c r="M39" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="31" t="s">
+      <c r="K39" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="25">
+        <v>2020</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O39" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="35"/>
+      <c r="BA39" s="35"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="35"/>
+      <c r="BD39" s="35"/>
+      <c r="BE39" s="35"/>
+      <c r="BF39" s="35"/>
+      <c r="BG39" s="35"/>
+      <c r="BH39" s="35"/>
+      <c r="BI39" s="35"/>
+      <c r="BJ39" s="35"/>
+      <c r="BK39" s="35"/>
+      <c r="BL39" s="35"/>
+      <c r="BM39" s="35"/>
+      <c r="BN39" s="35"/>
+    </row>
+    <row r="40" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>33</v>
-      </c>
-      <c r="B40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="24">
+        <v>95</v>
+      </c>
+      <c r="D40" s="5">
         <v>16</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -25248,88 +25242,37 @@
       <c r="I40" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="25">
-        <v>2020</v>
-      </c>
-      <c r="M40" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="N40" s="37" t="s">
+      <c r="K40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O40" s="37" t="s">
+      <c r="O40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="35"/>
-      <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-      <c r="AO40" s="35"/>
-      <c r="AP40" s="35"/>
-      <c r="AQ40" s="35"/>
-      <c r="AR40" s="35"/>
-      <c r="AS40" s="35"/>
-      <c r="AT40" s="35"/>
-      <c r="AU40" s="35"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="35"/>
-      <c r="AX40" s="35"/>
-      <c r="AY40" s="35"/>
-      <c r="AZ40" s="35"/>
-      <c r="BA40" s="35"/>
-      <c r="BB40" s="35"/>
-      <c r="BC40" s="35"/>
-      <c r="BD40" s="35"/>
-      <c r="BE40" s="35"/>
-      <c r="BF40" s="35"/>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="35"/>
-      <c r="BL40" s="35"/>
-      <c r="BM40" s="35"/>
-      <c r="BN40" s="35"/>
-    </row>
-    <row r="41" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:66" s="36" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>35</v>
-      </c>
-      <c r="B41" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="5">
-        <v>16</v>
+      <c r="C41" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="38">
+        <v>53</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>142</v>
@@ -25346,37 +25289,88 @@
       <c r="I41" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="38" t="s">
         <v>32</v>
       </c>
       <c r="L41" s="5">
-        <v>2023</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N41" s="31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:66" s="36" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O41" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="35"/>
+      <c r="AS41" s="35"/>
+      <c r="AT41" s="35"/>
+      <c r="AU41" s="35"/>
+      <c r="AV41" s="35"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="35"/>
+      <c r="AY41" s="35"/>
+      <c r="AZ41" s="35"/>
+      <c r="BA41" s="35"/>
+      <c r="BB41" s="35"/>
+      <c r="BC41" s="35"/>
+      <c r="BD41" s="35"/>
+      <c r="BE41" s="35"/>
+      <c r="BF41" s="35"/>
+      <c r="BG41" s="35"/>
+      <c r="BH41" s="35"/>
+      <c r="BI41" s="35"/>
+      <c r="BJ41" s="35"/>
+      <c r="BK41" s="35"/>
+      <c r="BL41" s="35"/>
+      <c r="BM41" s="35"/>
+      <c r="BN41" s="35"/>
+    </row>
+    <row r="42" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>36</v>
-      </c>
-      <c r="B42" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="38">
-        <v>53</v>
+      <c r="C42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="4">
+        <v>21</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>142</v>
@@ -25393,88 +25387,88 @@
       <c r="I42" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="L42" s="5">
-        <v>2025</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="37" t="s">
+        <v>2030</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N42" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O42" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="35"/>
-      <c r="AM42" s="35"/>
-      <c r="AN42" s="35"/>
-      <c r="AO42" s="35"/>
-      <c r="AP42" s="35"/>
-      <c r="AQ42" s="35"/>
-      <c r="AR42" s="35"/>
-      <c r="AS42" s="35"/>
-      <c r="AT42" s="35"/>
-      <c r="AU42" s="35"/>
-      <c r="AV42" s="35"/>
-      <c r="AW42" s="35"/>
-      <c r="AX42" s="35"/>
-      <c r="AY42" s="35"/>
-      <c r="AZ42" s="35"/>
-      <c r="BA42" s="35"/>
-      <c r="BB42" s="35"/>
-      <c r="BC42" s="35"/>
-      <c r="BD42" s="35"/>
-      <c r="BE42" s="35"/>
-      <c r="BF42" s="35"/>
-      <c r="BG42" s="35"/>
-      <c r="BH42" s="35"/>
-      <c r="BI42" s="35"/>
-      <c r="BJ42" s="35"/>
-      <c r="BK42" s="35"/>
-      <c r="BL42" s="35"/>
-      <c r="BM42" s="35"/>
-      <c r="BN42" s="35"/>
-    </row>
-    <row r="43" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O42" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="22"/>
+      <c r="BA42" s="22"/>
+      <c r="BB42" s="22"/>
+      <c r="BC42" s="22"/>
+      <c r="BD42" s="22"/>
+      <c r="BE42" s="22"/>
+      <c r="BF42" s="22"/>
+      <c r="BG42" s="22"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42" s="22"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="22"/>
+      <c r="BL42" s="22"/>
+      <c r="BM42" s="22"/>
+      <c r="BN42" s="22"/>
+    </row>
+    <row r="43" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="4">
-        <v>21</v>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>142</v>
@@ -25491,88 +25485,37 @@
       <c r="I43" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>32</v>
+      <c r="K43" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="L43" s="5">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="22"/>
-      <c r="AP43" s="22"/>
-      <c r="AQ43" s="22"/>
-      <c r="AR43" s="22"/>
-      <c r="AS43" s="22"/>
-      <c r="AT43" s="22"/>
-      <c r="AU43" s="22"/>
-      <c r="AV43" s="22"/>
-      <c r="AW43" s="22"/>
-      <c r="AX43" s="22"/>
-      <c r="AY43" s="22"/>
-      <c r="AZ43" s="22"/>
-      <c r="BA43" s="22"/>
-      <c r="BB43" s="22"/>
-      <c r="BC43" s="22"/>
-      <c r="BD43" s="22"/>
-      <c r="BE43" s="22"/>
-      <c r="BF43" s="22"/>
-      <c r="BG43" s="22"/>
-      <c r="BH43" s="22"/>
-      <c r="BI43" s="22"/>
-      <c r="BJ43" s="22"/>
-      <c r="BK43" s="22"/>
-      <c r="BL43" s="22"/>
-      <c r="BM43" s="22"/>
-      <c r="BN43" s="22"/>
+      <c r="O43" s="31" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>12</v>
+      <c r="C44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="5">
+        <v>20</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>142</v>
@@ -25593,33 +25536,33 @@
         <v>7</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L44" s="5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="N44" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>137</v>
+      <c r="C45" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D45" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>142</v>
@@ -25643,30 +25586,30 @@
         <v>32</v>
       </c>
       <c r="L45" s="5">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D46" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>142</v>
@@ -25690,30 +25633,30 @@
         <v>32</v>
       </c>
       <c r="L46" s="5">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M46" s="30" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="N46" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="5">
-        <v>23</v>
+      <c r="C47" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="24">
+        <v>17</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>142</v>
@@ -25730,42 +25673,42 @@
       <c r="I47" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>32</v>
+      <c r="K47" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="L47" s="5">
-        <v>2032</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N47" s="31" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N47" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="31" t="s">
-        <v>55</v>
+      <c r="O47" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>42</v>
+      <c r="A48" s="58">
+        <v>43</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="24">
+      <c r="C48" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="58">
         <v>17</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G48" s="24">
@@ -25777,42 +25720,42 @@
       <c r="I48" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" s="5">
-        <v>2019</v>
-      </c>
-      <c r="M48" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N48" s="32" t="s">
+      <c r="K48" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="58">
+        <v>1002</v>
+      </c>
+      <c r="M48" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="32" t="s">
+      <c r="O48" s="59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A49" s="58">
-        <v>43</v>
-      </c>
-      <c r="B49" s="30" t="s">
+    <row r="49" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="58">
-        <v>17</v>
-      </c>
-      <c r="E49" s="58" t="s">
+      <c r="C49" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="42">
+        <v>30</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G49" s="24">
@@ -25824,37 +25767,88 @@
       <c r="I49" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J49" s="58" t="s">
+      <c r="J49" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M49" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N49" s="59" t="s">
+      <c r="K49" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2043</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O49" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35"/>
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35"/>
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
+      <c r="BF49" s="35"/>
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="35"/>
+      <c r="BJ49" s="35"/>
+      <c r="BK49" s="35"/>
+      <c r="BL49" s="35"/>
+      <c r="BM49" s="35"/>
+      <c r="BN49" s="35"/>
+    </row>
+    <row r="50" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44</v>
-      </c>
-      <c r="B50" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="42">
-        <v>30</v>
+      <c r="C50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="5">
+        <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>142</v>
@@ -25871,85 +25865,34 @@
       <c r="I50" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J50" s="42" t="s">
+      <c r="J50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="42" t="s">
+      <c r="K50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="5">
-        <v>2043</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="N50" s="39" t="s">
+      <c r="L50" s="8">
+        <v>2033</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="N50" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="35"/>
-      <c r="AQ50" s="35"/>
-      <c r="AR50" s="35"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="35"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="35"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="35"/>
-      <c r="BA50" s="35"/>
-      <c r="BB50" s="35"/>
-      <c r="BC50" s="35"/>
-      <c r="BD50" s="35"/>
-      <c r="BE50" s="35"/>
-      <c r="BF50" s="35"/>
-      <c r="BG50" s="35"/>
-      <c r="BH50" s="35"/>
-      <c r="BI50" s="35"/>
-      <c r="BJ50" s="35"/>
-      <c r="BK50" s="35"/>
-      <c r="BL50" s="35"/>
-      <c r="BM50" s="35"/>
-      <c r="BN50" s="35"/>
+      <c r="O50" s="31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D51" s="5">
         <v>31</v>
@@ -25973,33 +25916,33 @@
         <v>7</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L51" s="8">
-        <v>2033</v>
-      </c>
-      <c r="M51" s="32" t="s">
-        <v>110</v>
+        <v>2037</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O51" s="31" t="s">
-        <v>106</v>
+      <c r="O51" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="D52" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>142</v>
@@ -26023,30 +25966,30 @@
         <v>11</v>
       </c>
       <c r="L52" s="8">
-        <v>2037</v>
-      </c>
-      <c r="M52" s="30" t="s">
-        <v>22</v>
+        <v>2036</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="N52" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O52" s="37" t="s">
-        <v>122</v>
+      <c r="O52" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>162</v>
+      <c r="C53" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D53" s="5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>142</v>
@@ -26067,127 +26010,178 @@
         <v>7</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L53" s="8">
-        <v>2036</v>
-      </c>
-      <c r="M53" s="32" t="s">
-        <v>163</v>
+        <v>2038</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="N53" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O53" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>48</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:66" s="73" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A54" s="58">
+        <v>49</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="5">
-        <v>35</v>
-      </c>
-      <c r="E54" s="24" t="s">
+      <c r="C54" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="58">
+        <v>39</v>
+      </c>
+      <c r="E54" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="58" t="s">
         <v>142</v>
       </c>
       <c r="G54" s="24">
         <v>200</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="74" t="s">
         <v>219</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="8">
-        <v>2038</v>
-      </c>
-      <c r="M54" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54" s="31" t="s">
+      <c r="K54" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="61">
+        <v>2039</v>
+      </c>
+      <c r="M54" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="N54" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O54" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:66" s="73" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
-        <v>49</v>
+      <c r="O54" s="59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="58">
-        <v>39</v>
-      </c>
-      <c r="E55" s="58" t="s">
+      <c r="C55" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="4">
+        <v>19</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G55" s="24">
         <v>200</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J55" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="61">
-        <v>2039</v>
-      </c>
-      <c r="M55" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" s="59" t="s">
+      <c r="J55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="10">
+        <v>2044</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N55" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="59" t="s">
-        <v>60</v>
-      </c>
+      <c r="O55" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22"/>
     </row>
     <row r="56" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>146</v>
+      <c r="C56" s="87" t="s">
+        <v>240</v>
       </c>
       <c r="D56" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>142</v>
@@ -26211,16 +26205,16 @@
         <v>34</v>
       </c>
       <c r="L56" s="10">
-        <v>2044</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>145</v>
+        <v>2045</v>
+      </c>
+      <c r="M56" s="90" t="s">
+        <v>240</v>
       </c>
       <c r="N56" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O56" s="30" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
@@ -26274,18 +26268,18 @@
       <c r="BM56" s="22"/>
       <c r="BN56" s="22"/>
     </row>
-    <row r="57" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="87" t="s">
-        <v>240</v>
+      <c r="C57" s="85" t="s">
+        <v>277</v>
       </c>
       <c r="D57" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>142</v>
@@ -26300,7 +26294,7 @@
         <v>219</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>144</v>
@@ -26309,16 +26303,16 @@
         <v>34</v>
       </c>
       <c r="L57" s="10">
-        <v>2045</v>
-      </c>
-      <c r="M57" s="90" t="s">
-        <v>240</v>
+        <v>2052</v>
+      </c>
+      <c r="M57" s="85" t="s">
+        <v>277</v>
       </c>
       <c r="N57" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O57" s="30" t="s">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="P57" s="22"/>
       <c r="Q57" s="22"/>
@@ -26372,51 +26366,51 @@
       <c r="BM57" s="22"/>
       <c r="BN57" s="22"/>
     </row>
-    <row r="58" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>155</v>
-      </c>
-      <c r="B58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="4">
-        <v>16</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="C58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="54">
         <v>200</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="10">
-        <v>2052</v>
-      </c>
-      <c r="M58" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="N58" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="53">
+        <v>2047</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="N58" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="O58" s="30" t="s">
-        <v>280</v>
+      <c r="O58" s="63" t="s">
+        <v>0</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -26470,122 +26464,94 @@
       <c r="BM58" s="22"/>
       <c r="BN58" s="22"/>
     </row>
-    <row r="59" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>122</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="G59" s="54">
-        <v>200</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="53">
-        <v>2047</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="N59" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22"/>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="22"/>
-      <c r="AU59" s="22"/>
-      <c r="AV59" s="22"/>
-      <c r="AW59" s="22"/>
-      <c r="AX59" s="22"/>
-      <c r="AY59" s="22"/>
-      <c r="AZ59" s="22"/>
-      <c r="BA59" s="22"/>
-      <c r="BB59" s="22"/>
-      <c r="BC59" s="22"/>
-      <c r="BD59" s="22"/>
-      <c r="BE59" s="22"/>
-      <c r="BF59" s="22"/>
-      <c r="BG59" s="22"/>
-      <c r="BH59" s="22"/>
-      <c r="BI59" s="22"/>
-      <c r="BJ59" s="22"/>
-      <c r="BK59" s="22"/>
-      <c r="BL59" s="22"/>
-      <c r="BM59" s="22"/>
-      <c r="BN59" s="22"/>
-    </row>
-    <row r="60" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="98" t="s">
+    <row r="59" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AK59" s="21"/>
+      <c r="AL59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="21"/>
+      <c r="AO59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AQ59" s="21"/>
+      <c r="AR59" s="21"/>
+      <c r="AS59" s="21"/>
+      <c r="AT59" s="21"/>
+      <c r="AU59" s="21"/>
+      <c r="AV59" s="21"/>
+      <c r="AW59" s="21"/>
+      <c r="AX59" s="21"/>
+      <c r="AY59" s="21"/>
+      <c r="AZ59" s="21"/>
+      <c r="BA59" s="21"/>
+      <c r="BB59" s="21"/>
+      <c r="BC59" s="21"/>
+      <c r="BD59" s="21"/>
+      <c r="BE59" s="21"/>
+      <c r="BF59" s="21"/>
+      <c r="BG59" s="21"/>
+      <c r="BH59" s="21"/>
+      <c r="BI59" s="21"/>
+      <c r="BJ59" s="21"/>
+      <c r="BK59" s="21"/>
+      <c r="BL59" s="21"/>
+      <c r="BM59" s="21"/>
+      <c r="BN59" s="21"/>
+    </row>
+    <row r="60" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -26638,24 +26604,52 @@
       <c r="BM60" s="21"/>
       <c r="BN60" s="21"/>
     </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99" t="s">
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="92">
         <v>148</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
+      <c r="B61" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="92">
+        <v>403</v>
+      </c>
+      <c r="H61" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J61" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M61" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N61" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O61" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -26708,15 +26702,15 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="92">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D62" s="92" t="s">
         <v>12</v>
@@ -26743,16 +26737,16 @@
         <v>34</v>
       </c>
       <c r="L62" s="92">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M62" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O62" s="30" t="s">
-        <v>61</v>
+        <v>248</v>
+      </c>
+      <c r="N62" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" s="93" t="s">
+        <v>12</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
@@ -26806,50 +26800,50 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
-        <v>146</v>
+    <row r="63" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>52</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D63" s="92" t="s">
+      <c r="C63" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="92" t="s">
+      <c r="E63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="92" t="s">
+      <c r="F63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G63" s="92">
-        <v>403</v>
-      </c>
-      <c r="H63" s="92" t="s">
+      <c r="G63" s="24">
+        <v>401</v>
+      </c>
+      <c r="H63" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="92" t="s">
+      <c r="J63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="92" t="s">
+      <c r="K63" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L63" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M63" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N63" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O63" s="93" t="s">
+      <c r="L63" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M63" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P63" s="21"/>
@@ -26904,15 +26898,15 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>156</v>
+      <c r="C64" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>12</v>
@@ -26939,15 +26933,15 @@
         <v>34</v>
       </c>
       <c r="L64" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="49" t="s">
+      <c r="O64" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P64" s="21"/>
@@ -27002,15 +26996,15 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -27022,7 +27016,7 @@
         <v>142</v>
       </c>
       <c r="G65" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H65" s="58" t="s">
         <v>218</v>
@@ -27030,85 +27024,85 @@
       <c r="I65" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L65" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N65" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="21"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
-      <c r="AN65" s="21"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="21"/>
-      <c r="AQ65" s="21"/>
-      <c r="AR65" s="21"/>
-      <c r="AS65" s="21"/>
-      <c r="AT65" s="21"/>
-      <c r="AU65" s="21"/>
-      <c r="AV65" s="21"/>
-      <c r="AW65" s="21"/>
-      <c r="AX65" s="21"/>
-      <c r="AY65" s="21"/>
-      <c r="AZ65" s="21"/>
-      <c r="BA65" s="21"/>
-      <c r="BB65" s="21"/>
-      <c r="BC65" s="21"/>
-      <c r="BD65" s="21"/>
-      <c r="BE65" s="21"/>
-      <c r="BF65" s="21"/>
-      <c r="BG65" s="21"/>
-      <c r="BH65" s="21"/>
-      <c r="BI65" s="21"/>
-      <c r="BJ65" s="21"/>
-      <c r="BK65" s="21"/>
-      <c r="BL65" s="21"/>
-      <c r="BM65" s="21"/>
-      <c r="BN65" s="21"/>
-    </row>
-    <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K65" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="24">
+        <v>1003</v>
+      </c>
+      <c r="M65" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
+      <c r="AM65" s="22"/>
+      <c r="AN65" s="22"/>
+      <c r="AO65" s="22"/>
+      <c r="AP65" s="22"/>
+      <c r="AQ65" s="22"/>
+      <c r="AR65" s="22"/>
+      <c r="AS65" s="22"/>
+      <c r="AT65" s="22"/>
+      <c r="AU65" s="22"/>
+      <c r="AV65" s="22"/>
+      <c r="AW65" s="22"/>
+      <c r="AX65" s="22"/>
+      <c r="AY65" s="22"/>
+      <c r="AZ65" s="22"/>
+      <c r="BA65" s="22"/>
+      <c r="BB65" s="22"/>
+      <c r="BC65" s="22"/>
+      <c r="BD65" s="22"/>
+      <c r="BE65" s="22"/>
+      <c r="BF65" s="22"/>
+      <c r="BG65" s="22"/>
+      <c r="BH65" s="22"/>
+      <c r="BI65" s="22"/>
+      <c r="BJ65" s="22"/>
+      <c r="BK65" s="22"/>
+      <c r="BL65" s="22"/>
+      <c r="BM65" s="22"/>
+      <c r="BN65" s="22"/>
+    </row>
+    <row r="66" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27132,13 +27126,13 @@
         <v>7</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="24">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="L66" s="25">
+        <v>1004</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N66" s="30" t="s">
         <v>62</v>
@@ -27198,26 +27192,26 @@
       <c r="BM66" s="22"/>
       <c r="BN66" s="22"/>
     </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="54">
         <v>400</v>
       </c>
       <c r="H67" s="58" t="s">
@@ -27226,97 +27220,46 @@
       <c r="I67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="24" t="s">
+      <c r="K67" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M67" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O67" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="22"/>
-      <c r="AJ67" s="22"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
-      <c r="AQ67" s="22"/>
-      <c r="AR67" s="22"/>
-      <c r="AS67" s="22"/>
-      <c r="AT67" s="22"/>
-      <c r="AU67" s="22"/>
-      <c r="AV67" s="22"/>
-      <c r="AW67" s="22"/>
-      <c r="AX67" s="22"/>
-      <c r="AY67" s="22"/>
-      <c r="AZ67" s="22"/>
-      <c r="BA67" s="22"/>
-      <c r="BB67" s="22"/>
-      <c r="BC67" s="22"/>
-      <c r="BD67" s="22"/>
-      <c r="BE67" s="22"/>
-      <c r="BF67" s="22"/>
-      <c r="BG67" s="22"/>
-      <c r="BH67" s="22"/>
-      <c r="BI67" s="22"/>
-      <c r="BJ67" s="22"/>
-      <c r="BK67" s="22"/>
-      <c r="BL67" s="22"/>
-      <c r="BM67" s="22"/>
-      <c r="BN67" s="22"/>
-    </row>
-    <row r="68" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L67" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M67" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N67" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O67" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="53" t="s">
+      <c r="C68" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="54">
-        <v>400</v>
+      <c r="G68" s="24">
+        <v>403</v>
       </c>
       <c r="H68" s="58" t="s">
         <v>218</v>
@@ -27324,34 +27267,85 @@
       <c r="I68" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="54" t="s">
+      <c r="K68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M68" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N68" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O68" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L68" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
+      <c r="AQ68" s="22"/>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="22"/>
+      <c r="AV68" s="22"/>
+      <c r="AW68" s="22"/>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="22"/>
+      <c r="BG68" s="22"/>
+      <c r="BH68" s="22"/>
+      <c r="BI68" s="22"/>
+      <c r="BJ68" s="22"/>
+      <c r="BK68" s="22"/>
+      <c r="BL68" s="22"/>
+      <c r="BM68" s="22"/>
+      <c r="BN68" s="22"/>
     </row>
     <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
@@ -27375,13 +27369,13 @@
         <v>7</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L69" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N69" s="30" t="s">
         <v>62</v>
@@ -27443,13 +27437,13 @@
     </row>
     <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
@@ -27476,10 +27470,10 @@
         <v>32</v>
       </c>
       <c r="L70" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N70" s="30" t="s">
         <v>62</v>
@@ -27541,15 +27535,15 @@
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -27571,19 +27565,19 @@
         <v>7</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="25">
-        <v>1008</v>
+        <v>34</v>
+      </c>
+      <c r="L71" s="24">
+        <v>1011</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O71" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -27639,15 +27633,15 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -27657,7 +27651,7 @@
         <v>142</v>
       </c>
       <c r="G72" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H72" s="58" t="s">
         <v>218</v>
@@ -27665,23 +27659,23 @@
       <c r="I72" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="24" t="s">
+      <c r="K72" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L72" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M72" s="32" t="s">
-        <v>204</v>
+      <c r="L72" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -27735,122 +27729,94 @@
       <c r="BM72" s="22"/>
       <c r="BN72" s="22"/>
     </row>
-    <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>61</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G73" s="24">
-        <v>404</v>
-      </c>
-      <c r="H73" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L73" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M73" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N73" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O73" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="22"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="22"/>
-      <c r="AE73" s="22"/>
-      <c r="AF73" s="22"/>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="22"/>
-      <c r="AI73" s="22"/>
-      <c r="AJ73" s="22"/>
-      <c r="AK73" s="22"/>
-      <c r="AL73" s="22"/>
-      <c r="AM73" s="22"/>
-      <c r="AN73" s="22"/>
-      <c r="AO73" s="22"/>
-      <c r="AP73" s="22"/>
-      <c r="AQ73" s="22"/>
-      <c r="AR73" s="22"/>
-      <c r="AS73" s="22"/>
-      <c r="AT73" s="22"/>
-      <c r="AU73" s="22"/>
-      <c r="AV73" s="22"/>
-      <c r="AW73" s="22"/>
-      <c r="AX73" s="22"/>
-      <c r="AY73" s="22"/>
-      <c r="AZ73" s="22"/>
-      <c r="BA73" s="22"/>
-      <c r="BB73" s="22"/>
-      <c r="BC73" s="22"/>
-      <c r="BD73" s="22"/>
-      <c r="BE73" s="22"/>
-      <c r="BF73" s="22"/>
-      <c r="BG73" s="22"/>
-      <c r="BH73" s="22"/>
-      <c r="BI73" s="22"/>
-      <c r="BJ73" s="22"/>
-      <c r="BK73" s="22"/>
-      <c r="BL73" s="22"/>
-      <c r="BM73" s="22"/>
-      <c r="BN73" s="22"/>
-    </row>
-    <row r="74" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="98" t="s">
+    <row r="73" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="98"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="98"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="21"/>
+      <c r="AR73" s="21"/>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="21"/>
+      <c r="AW73" s="21"/>
+      <c r="AX73" s="21"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="21"/>
+      <c r="BA73" s="21"/>
+      <c r="BB73" s="21"/>
+      <c r="BC73" s="21"/>
+      <c r="BD73" s="21"/>
+      <c r="BE73" s="21"/>
+      <c r="BF73" s="21"/>
+      <c r="BG73" s="21"/>
+      <c r="BH73" s="21"/>
+      <c r="BI73" s="21"/>
+      <c r="BJ73" s="21"/>
+      <c r="BK73" s="21"/>
+      <c r="BL73" s="21"/>
+      <c r="BM73" s="21"/>
+      <c r="BN73" s="21"/>
+    </row>
+    <row r="74" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="99"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
@@ -27903,24 +27869,52 @@
       <c r="BM74" s="21"/>
       <c r="BN74" s="21"/>
     </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99" t="s">
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="92">
         <v>148</v>
       </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
+      <c r="B75" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="92">
+        <v>403</v>
+      </c>
+      <c r="H75" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M75" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -27973,15 +27967,15 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="92">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D76" s="92" t="s">
         <v>12</v>
@@ -28008,16 +28002,16 @@
         <v>34</v>
       </c>
       <c r="L76" s="92">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M76" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="N76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O76" s="30" t="s">
-        <v>61</v>
+        <v>248</v>
+      </c>
+      <c r="N76" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="93" t="s">
+        <v>12</v>
       </c>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
@@ -28071,50 +28065,50 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="92">
-        <v>146</v>
+    <row r="77" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>62</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="92" t="s">
+      <c r="C77" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="92" t="s">
+      <c r="E77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="92" t="s">
+      <c r="F77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="92">
-        <v>403</v>
-      </c>
-      <c r="H77" s="92" t="s">
+      <c r="G77" s="24">
+        <v>401</v>
+      </c>
+      <c r="H77" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I77" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J77" s="92" t="s">
+      <c r="J77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="92" t="s">
+      <c r="K77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M77" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N77" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="93" t="s">
+      <c r="L77" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N77" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O77" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P77" s="21"/>
@@ -28169,15 +28163,15 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
@@ -28204,15 +28198,15 @@
         <v>34</v>
       </c>
       <c r="L78" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N78" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O78" s="49" t="s">
+      <c r="O78" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P78" s="21"/>
@@ -28267,15 +28261,15 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -28287,7 +28281,7 @@
         <v>142</v>
       </c>
       <c r="G79" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H79" s="58" t="s">
         <v>218</v>
@@ -28295,85 +28289,85 @@
       <c r="I79" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L79" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M79" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N79" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O79" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
-      <c r="AA79" s="21"/>
-      <c r="AB79" s="21"/>
-      <c r="AC79" s="21"/>
-      <c r="AD79" s="21"/>
-      <c r="AE79" s="21"/>
-      <c r="AF79" s="21"/>
-      <c r="AG79" s="21"/>
-      <c r="AH79" s="21"/>
-      <c r="AI79" s="21"/>
-      <c r="AJ79" s="21"/>
-      <c r="AK79" s="21"/>
-      <c r="AL79" s="21"/>
-      <c r="AM79" s="21"/>
-      <c r="AN79" s="21"/>
-      <c r="AO79" s="21"/>
-      <c r="AP79" s="21"/>
-      <c r="AQ79" s="21"/>
-      <c r="AR79" s="21"/>
-      <c r="AS79" s="21"/>
-      <c r="AT79" s="21"/>
-      <c r="AU79" s="21"/>
-      <c r="AV79" s="21"/>
-      <c r="AW79" s="21"/>
-      <c r="AX79" s="21"/>
-      <c r="AY79" s="21"/>
-      <c r="AZ79" s="21"/>
-      <c r="BA79" s="21"/>
-      <c r="BB79" s="21"/>
-      <c r="BC79" s="21"/>
-      <c r="BD79" s="21"/>
-      <c r="BE79" s="21"/>
-      <c r="BF79" s="21"/>
-      <c r="BG79" s="21"/>
-      <c r="BH79" s="21"/>
-      <c r="BI79" s="21"/>
-      <c r="BJ79" s="21"/>
-      <c r="BK79" s="21"/>
-      <c r="BL79" s="21"/>
-      <c r="BM79" s="21"/>
-      <c r="BN79" s="21"/>
-    </row>
-    <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K79" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="25">
+        <v>1003</v>
+      </c>
+      <c r="M79" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="22"/>
+      <c r="AB79" s="22"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="22"/>
+      <c r="AE79" s="22"/>
+      <c r="AF79" s="22"/>
+      <c r="AG79" s="22"/>
+      <c r="AH79" s="22"/>
+      <c r="AI79" s="22"/>
+      <c r="AJ79" s="22"/>
+      <c r="AK79" s="22"/>
+      <c r="AL79" s="22"/>
+      <c r="AM79" s="22"/>
+      <c r="AN79" s="22"/>
+      <c r="AO79" s="22"/>
+      <c r="AP79" s="22"/>
+      <c r="AQ79" s="22"/>
+      <c r="AR79" s="22"/>
+      <c r="AS79" s="22"/>
+      <c r="AT79" s="22"/>
+      <c r="AU79" s="22"/>
+      <c r="AV79" s="22"/>
+      <c r="AW79" s="22"/>
+      <c r="AX79" s="22"/>
+      <c r="AY79" s="22"/>
+      <c r="AZ79" s="22"/>
+      <c r="BA79" s="22"/>
+      <c r="BB79" s="22"/>
+      <c r="BC79" s="22"/>
+      <c r="BD79" s="22"/>
+      <c r="BE79" s="22"/>
+      <c r="BF79" s="22"/>
+      <c r="BG79" s="22"/>
+      <c r="BH79" s="22"/>
+      <c r="BI79" s="22"/>
+      <c r="BJ79" s="22"/>
+      <c r="BK79" s="22"/>
+      <c r="BL79" s="22"/>
+      <c r="BM79" s="22"/>
+      <c r="BN79" s="22"/>
+    </row>
+    <row r="80" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28393,22 +28387,22 @@
       <c r="I80" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="24" t="s">
         <v>7</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L80" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M80" s="47" t="s">
-        <v>14</v>
+        <v>1004</v>
+      </c>
+      <c r="M80" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="N80" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O80" s="4" t="s">
+      <c r="O80" s="30" t="s">
         <v>45</v>
       </c>
       <c r="P80" s="22"/>
@@ -28463,26 +28457,26 @@
       <c r="BM80" s="22"/>
       <c r="BN80" s="22"/>
     </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="24">
+      <c r="G81" s="54">
         <v>400</v>
       </c>
       <c r="H81" s="58" t="s">
@@ -28491,97 +28485,46 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="24" t="s">
+      <c r="K81" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O81" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="22"/>
-      <c r="AB81" s="22"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="22"/>
-      <c r="AE81" s="22"/>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="22"/>
-      <c r="AI81" s="22"/>
-      <c r="AJ81" s="22"/>
-      <c r="AK81" s="22"/>
-      <c r="AL81" s="22"/>
-      <c r="AM81" s="22"/>
-      <c r="AN81" s="22"/>
-      <c r="AO81" s="22"/>
-      <c r="AP81" s="22"/>
-      <c r="AQ81" s="22"/>
-      <c r="AR81" s="22"/>
-      <c r="AS81" s="22"/>
-      <c r="AT81" s="22"/>
-      <c r="AU81" s="22"/>
-      <c r="AV81" s="22"/>
-      <c r="AW81" s="22"/>
-      <c r="AX81" s="22"/>
-      <c r="AY81" s="22"/>
-      <c r="AZ81" s="22"/>
-      <c r="BA81" s="22"/>
-      <c r="BB81" s="22"/>
-      <c r="BC81" s="22"/>
-      <c r="BD81" s="22"/>
-      <c r="BE81" s="22"/>
-      <c r="BF81" s="22"/>
-      <c r="BG81" s="22"/>
-      <c r="BH81" s="22"/>
-      <c r="BI81" s="22"/>
-      <c r="BJ81" s="22"/>
-      <c r="BK81" s="22"/>
-      <c r="BL81" s="22"/>
-      <c r="BM81" s="22"/>
-      <c r="BN81" s="22"/>
-    </row>
-    <row r="82" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L81" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M81" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O81" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="53" t="s">
+      <c r="C82" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="53" t="s">
+      <c r="F82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="54">
-        <v>400</v>
+      <c r="G82" s="24">
+        <v>403</v>
       </c>
       <c r="H82" s="58" t="s">
         <v>218</v>
@@ -28589,34 +28532,85 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="53" t="s">
+      <c r="J82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="54" t="s">
+      <c r="K82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M82" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N82" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O82" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L82" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="22"/>
+      <c r="AP82" s="22"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="22"/>
+      <c r="AT82" s="22"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="22"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22"/>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="22"/>
+      <c r="BL82" s="22"/>
+      <c r="BM82" s="22"/>
+      <c r="BN82" s="22"/>
     </row>
     <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
@@ -28640,13 +28634,13 @@
         <v>7</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L83" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M83" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N83" s="30" t="s">
         <v>62</v>
@@ -28708,13 +28702,13 @@
     </row>
     <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
@@ -28741,10 +28735,10 @@
         <v>32</v>
       </c>
       <c r="L84" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M84" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>62</v>
@@ -28806,15 +28800,15 @@
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -28836,19 +28830,19 @@
         <v>7</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L85" s="25">
-        <v>1008</v>
-      </c>
-      <c r="M85" s="30" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="L85" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M85" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O85" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
@@ -28904,15 +28898,15 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D86" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -28922,7 +28916,7 @@
         <v>142</v>
       </c>
       <c r="G86" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H86" s="58" t="s">
         <v>218</v>
@@ -28930,23 +28924,23 @@
       <c r="I86" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M86" s="32" t="s">
-        <v>204</v>
+      <c r="K86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O86" s="30" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -29000,122 +28994,94 @@
       <c r="BM86" s="22"/>
       <c r="BN86" s="22"/>
     </row>
-    <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>71</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G87" s="24">
-        <v>404</v>
-      </c>
-      <c r="H87" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="N87" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O87" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="22"/>
-      <c r="AJ87" s="22"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="22"/>
-      <c r="AM87" s="22"/>
-      <c r="AN87" s="22"/>
-      <c r="AO87" s="22"/>
-      <c r="AP87" s="22"/>
-      <c r="AQ87" s="22"/>
-      <c r="AR87" s="22"/>
-      <c r="AS87" s="22"/>
-      <c r="AT87" s="22"/>
-      <c r="AU87" s="22"/>
-      <c r="AV87" s="22"/>
-      <c r="AW87" s="22"/>
-      <c r="AX87" s="22"/>
-      <c r="AY87" s="22"/>
-      <c r="AZ87" s="22"/>
-      <c r="BA87" s="22"/>
-      <c r="BB87" s="22"/>
-      <c r="BC87" s="22"/>
-      <c r="BD87" s="22"/>
-      <c r="BE87" s="22"/>
-      <c r="BF87" s="22"/>
-      <c r="BG87" s="22"/>
-      <c r="BH87" s="22"/>
-      <c r="BI87" s="22"/>
-      <c r="BJ87" s="22"/>
-      <c r="BK87" s="22"/>
-      <c r="BL87" s="22"/>
-      <c r="BM87" s="22"/>
-      <c r="BN87" s="22"/>
-    </row>
-    <row r="88" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98" t="s">
+    <row r="87" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="98"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
-      <c r="I88" s="98"/>
-      <c r="J88" s="98"/>
-      <c r="K88" s="98"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="98"/>
-      <c r="N88" s="98"/>
-      <c r="O88" s="98"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="98"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
+      <c r="N87" s="98"/>
+      <c r="O87" s="98"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+      <c r="BM87" s="21"/>
+      <c r="BN87" s="21"/>
+    </row>
+    <row r="88" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="99"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="99"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
@@ -29168,24 +29134,52 @@
       <c r="BM88" s="21"/>
       <c r="BN88" s="21"/>
     </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="92">
+        <v>146</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="92">
+        <v>403</v>
+      </c>
+      <c r="H89" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M89" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N89" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="93" t="s">
+        <v>12</v>
+      </c>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -29238,50 +29232,50 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="92">
-        <v>146</v>
+    <row r="90" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>72</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="92" t="s">
+      <c r="C90" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="92" t="s">
+      <c r="E90" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F90" s="92" t="s">
+      <c r="F90" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G90" s="92">
-        <v>403</v>
-      </c>
-      <c r="H90" s="92" t="s">
+      <c r="G90" s="24">
+        <v>401</v>
+      </c>
+      <c r="H90" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J90" s="92" t="s">
+      <c r="J90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="92" t="s">
+      <c r="K90" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M90" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N90" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O90" s="93" t="s">
+      <c r="L90" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N90" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P90" s="21"/>
@@ -29336,15 +29330,15 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>12</v>
@@ -29371,15 +29365,15 @@
         <v>34</v>
       </c>
       <c r="L91" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N91" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O91" s="49" t="s">
+      <c r="O91" s="47" t="s">
         <v>12</v>
       </c>
       <c r="P91" s="21"/>
@@ -29434,15 +29428,15 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -29454,7 +29448,7 @@
         <v>142</v>
       </c>
       <c r="G92" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H92" s="58" t="s">
         <v>218</v>
@@ -29466,81 +29460,81 @@
         <v>7</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L92" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M92" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N92" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O92" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="21"/>
-      <c r="AJ92" s="21"/>
-      <c r="AK92" s="21"/>
-      <c r="AL92" s="21"/>
-      <c r="AM92" s="21"/>
-      <c r="AN92" s="21"/>
-      <c r="AO92" s="21"/>
-      <c r="AP92" s="21"/>
-      <c r="AQ92" s="21"/>
-      <c r="AR92" s="21"/>
-      <c r="AS92" s="21"/>
-      <c r="AT92" s="21"/>
-      <c r="AU92" s="21"/>
-      <c r="AV92" s="21"/>
-      <c r="AW92" s="21"/>
-      <c r="AX92" s="21"/>
-      <c r="AY92" s="21"/>
-      <c r="AZ92" s="21"/>
-      <c r="BA92" s="21"/>
-      <c r="BB92" s="21"/>
-      <c r="BC92" s="21"/>
-      <c r="BD92" s="21"/>
-      <c r="BE92" s="21"/>
-      <c r="BF92" s="21"/>
-      <c r="BG92" s="21"/>
-      <c r="BH92" s="21"/>
-      <c r="BI92" s="21"/>
-      <c r="BJ92" s="21"/>
-      <c r="BK92" s="21"/>
-      <c r="BL92" s="21"/>
-      <c r="BM92" s="21"/>
-      <c r="BN92" s="21"/>
-    </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L92" s="10">
+        <v>1003</v>
+      </c>
+      <c r="M92" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="22"/>
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="22"/>
+      <c r="AI92" s="22"/>
+      <c r="AJ92" s="22"/>
+      <c r="AK92" s="22"/>
+      <c r="AL92" s="22"/>
+      <c r="AM92" s="22"/>
+      <c r="AN92" s="22"/>
+      <c r="AO92" s="22"/>
+      <c r="AP92" s="22"/>
+      <c r="AQ92" s="22"/>
+      <c r="AR92" s="22"/>
+      <c r="AS92" s="22"/>
+      <c r="AT92" s="22"/>
+      <c r="AU92" s="22"/>
+      <c r="AV92" s="22"/>
+      <c r="AW92" s="22"/>
+      <c r="AX92" s="22"/>
+      <c r="AY92" s="22"/>
+      <c r="AZ92" s="22"/>
+      <c r="BA92" s="22"/>
+      <c r="BB92" s="22"/>
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22"/>
+      <c r="BF92" s="22"/>
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="22"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="22"/>
+      <c r="BK92" s="22"/>
+      <c r="BL92" s="22"/>
+      <c r="BM92" s="22"/>
+      <c r="BN92" s="22"/>
+    </row>
+    <row r="93" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>267</v>
+      <c r="C93" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29564,13 +29558,13 @@
         <v>7</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L93" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M93" s="30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N93" s="30" t="s">
         <v>133</v>
@@ -29630,15 +29624,15 @@
       <c r="BM93" s="22"/>
       <c r="BN93" s="22"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29662,13 +29656,13 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L94" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M94" s="30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N94" s="30" t="s">
         <v>133</v>
@@ -29728,26 +29722,26 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="24">
+      <c r="G95" s="54">
         <v>400</v>
       </c>
       <c r="H95" s="58" t="s">
@@ -29756,97 +29750,46 @@
       <c r="I95" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L95" s="10">
-        <v>1005</v>
-      </c>
-      <c r="M95" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N95" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O95" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
-      <c r="Y95" s="22"/>
-      <c r="Z95" s="22"/>
-      <c r="AA95" s="22"/>
-      <c r="AB95" s="22"/>
-      <c r="AC95" s="22"/>
-      <c r="AD95" s="22"/>
-      <c r="AE95" s="22"/>
-      <c r="AF95" s="22"/>
-      <c r="AG95" s="22"/>
-      <c r="AH95" s="22"/>
-      <c r="AI95" s="22"/>
-      <c r="AJ95" s="22"/>
-      <c r="AK95" s="22"/>
-      <c r="AL95" s="22"/>
-      <c r="AM95" s="22"/>
-      <c r="AN95" s="22"/>
-      <c r="AO95" s="22"/>
-      <c r="AP95" s="22"/>
-      <c r="AQ95" s="22"/>
-      <c r="AR95" s="22"/>
-      <c r="AS95" s="22"/>
-      <c r="AT95" s="22"/>
-      <c r="AU95" s="22"/>
-      <c r="AV95" s="22"/>
-      <c r="AW95" s="22"/>
-      <c r="AX95" s="22"/>
-      <c r="AY95" s="22"/>
-      <c r="AZ95" s="22"/>
-      <c r="BA95" s="22"/>
-      <c r="BB95" s="22"/>
-      <c r="BC95" s="22"/>
-      <c r="BD95" s="22"/>
-      <c r="BE95" s="22"/>
-      <c r="BF95" s="22"/>
-      <c r="BG95" s="22"/>
-      <c r="BH95" s="22"/>
-      <c r="BI95" s="22"/>
-      <c r="BJ95" s="22"/>
-      <c r="BK95" s="22"/>
-      <c r="BL95" s="22"/>
-      <c r="BM95" s="22"/>
-      <c r="BN95" s="22"/>
-    </row>
-    <row r="96" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K95" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M95" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N95" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="53" t="s">
+      <c r="C96" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="E96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="54">
-        <v>400</v>
+      <c r="G96" s="24">
+        <v>403</v>
       </c>
       <c r="H96" s="58" t="s">
         <v>218</v>
@@ -29854,34 +29797,85 @@
       <c r="I96" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J96" s="53" t="s">
+      <c r="J96" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="54" t="s">
+      <c r="K96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L96" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M96" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N96" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O96" s="63" t="s">
-        <v>12</v>
-      </c>
+      <c r="L96" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+      <c r="X96" s="22"/>
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="22"/>
+      <c r="AD96" s="22"/>
+      <c r="AE96" s="22"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="22"/>
+      <c r="AH96" s="22"/>
+      <c r="AI96" s="22"/>
+      <c r="AJ96" s="22"/>
+      <c r="AK96" s="22"/>
+      <c r="AL96" s="22"/>
+      <c r="AM96" s="22"/>
+      <c r="AN96" s="22"/>
+      <c r="AO96" s="22"/>
+      <c r="AP96" s="22"/>
+      <c r="AQ96" s="22"/>
+      <c r="AR96" s="22"/>
+      <c r="AS96" s="22"/>
+      <c r="AT96" s="22"/>
+      <c r="AU96" s="22"/>
+      <c r="AV96" s="22"/>
+      <c r="AW96" s="22"/>
+      <c r="AX96" s="22"/>
+      <c r="AY96" s="22"/>
+      <c r="AZ96" s="22"/>
+      <c r="BA96" s="22"/>
+      <c r="BB96" s="22"/>
+      <c r="BC96" s="22"/>
+      <c r="BD96" s="22"/>
+      <c r="BE96" s="22"/>
+      <c r="BF96" s="22"/>
+      <c r="BG96" s="22"/>
+      <c r="BH96" s="22"/>
+      <c r="BI96" s="22"/>
+      <c r="BJ96" s="22"/>
+      <c r="BK96" s="22"/>
+      <c r="BL96" s="22"/>
+      <c r="BM96" s="22"/>
+      <c r="BN96" s="22"/>
     </row>
     <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
@@ -29905,13 +29899,13 @@
         <v>7</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L97" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M97" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N97" s="30" t="s">
         <v>133</v>
@@ -29971,15 +29965,15 @@
       <c r="BM97" s="22"/>
       <c r="BN97" s="22"/>
     </row>
-    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -30006,10 +30000,10 @@
         <v>32</v>
       </c>
       <c r="L98" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M98" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N98" s="30" t="s">
         <v>133</v>
@@ -30071,15 +30065,15 @@
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -30101,19 +30095,19 @@
         <v>7</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L99" s="10">
-        <v>1008</v>
-      </c>
-      <c r="M99" s="30" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="L99" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M99" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O99" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
@@ -30167,27 +30161,27 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G100" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H100" s="58" t="s">
         <v>218</v>
@@ -30201,17 +30195,17 @@
       <c r="K100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L100" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M100" s="32" t="s">
-        <v>204</v>
+      <c r="L100" s="10">
+        <v>3001</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>213</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O100" s="30" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -30265,15 +30259,15 @@
       <c r="BM100" s="22"/>
       <c r="BN100" s="22"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -30282,7 +30276,7 @@
         <v>142</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G101" s="24">
         <v>400</v>
@@ -30297,19 +30291,19 @@
         <v>7</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L101" s="10">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="M101" s="30" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30364,14 +30358,14 @@
       <c r="BN101" s="22"/>
     </row>
     <row r="102" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>83</v>
+      <c r="A102" s="26">
+        <v>137</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>115</v>
+      <c r="C102" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30379,8 +30373,8 @@
       <c r="E102" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>142</v>
+      <c r="F102" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G102" s="24">
         <v>400</v>
@@ -30397,17 +30391,17 @@
       <c r="K102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M102" s="30" t="s">
-        <v>29</v>
+      <c r="L102" s="26">
+        <v>3009</v>
+      </c>
+      <c r="M102" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O102" s="30" t="s">
-        <v>68</v>
+      <c r="O102" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30461,15 +30455,15 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30493,81 +30487,81 @@
         <v>7</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L103" s="26">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M103" s="71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O103" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="22"/>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="22"/>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="22"/>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="22"/>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="22"/>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="22"/>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="22"/>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="22"/>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="22"/>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="22"/>
-    </row>
-    <row r="104" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="21"/>
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="21"/>
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="21"/>
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="21"/>
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="21"/>
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="21"/>
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="21"/>
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="21"/>
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="21"/>
+    </row>
+    <row r="104" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30594,10 +30588,10 @@
         <v>32</v>
       </c>
       <c r="L104" s="26">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="M104" s="71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
@@ -30657,15 +30651,15 @@
       <c r="BM104" s="21"/>
       <c r="BN104" s="21"/>
     </row>
-    <row r="105" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30677,7 +30671,7 @@
         <v>143</v>
       </c>
       <c r="G105" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H105" s="58" t="s">
         <v>218</v>
@@ -30692,16 +30686,16 @@
         <v>32</v>
       </c>
       <c r="L105" s="26">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O105" s="33" t="s">
-        <v>215</v>
+      <c r="O105" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="P105" s="21"/>
       <c r="Q105" s="21"/>
@@ -30757,13 +30751,13 @@
     </row>
     <row r="106" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="71" t="s">
-        <v>223</v>
+      <c r="C106" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30771,11 +30765,11 @@
       <c r="E106" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="26" t="s">
-        <v>143</v>
+      <c r="F106" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G106" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H106" s="58" t="s">
         <v>218</v>
@@ -30790,16 +30784,16 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3012</v>
-      </c>
-      <c r="M106" s="71" t="s">
-        <v>224</v>
+        <v>3013</v>
+      </c>
+      <c r="M106" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O106" s="30" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -30853,26 +30847,26 @@
       <c r="BM106" s="21"/>
       <c r="BN106" s="21"/>
     </row>
-    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="26">
-        <v>141</v>
-      </c>
-      <c r="B107" s="30" t="s">
+    <row r="107" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="58">
+        <v>84</v>
+      </c>
+      <c r="B107" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="C107" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="58">
         <v>400</v>
       </c>
       <c r="H107" s="58" t="s">
@@ -30881,23 +30875,23 @@
       <c r="I107" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L107" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M107" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="N107" s="30" t="s">
+      <c r="K107" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="58">
+        <v>1002</v>
+      </c>
+      <c r="M107" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N107" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="O107" s="30" t="s">
-        <v>233</v>
+      <c r="O107" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -30951,52 +30945,24 @@
       <c r="BM107" s="21"/>
       <c r="BN107" s="21"/>
     </row>
-    <row r="108" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
-        <v>84</v>
-      </c>
-      <c r="B108" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="G108" s="58">
-        <v>400</v>
-      </c>
-      <c r="H108" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I108" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J108" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L108" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M108" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N108" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="O108" s="59" t="s">
-        <v>68</v>
-      </c>
+    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="99"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -31049,220 +31015,220 @@
       <c r="BM108" s="21"/>
       <c r="BN108" s="21"/>
     </row>
-    <row r="109" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
-      <c r="G109" s="99"/>
-      <c r="H109" s="99"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="99"/>
-      <c r="K109" s="99"/>
-      <c r="L109" s="99"/>
-      <c r="M109" s="99"/>
-      <c r="N109" s="99"/>
-      <c r="O109" s="99"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="21"/>
-      <c r="S109" s="21"/>
-      <c r="T109" s="21"/>
-      <c r="U109" s="21"/>
-      <c r="V109" s="21"/>
-      <c r="W109" s="21"/>
-      <c r="X109" s="21"/>
-      <c r="Y109" s="21"/>
-      <c r="Z109" s="21"/>
-      <c r="AA109" s="21"/>
-      <c r="AB109" s="21"/>
-      <c r="AC109" s="21"/>
-      <c r="AD109" s="21"/>
-      <c r="AE109" s="21"/>
-      <c r="AF109" s="21"/>
-      <c r="AG109" s="21"/>
-      <c r="AH109" s="21"/>
-      <c r="AI109" s="21"/>
-      <c r="AJ109" s="21"/>
-      <c r="AK109" s="21"/>
-      <c r="AL109" s="21"/>
-      <c r="AM109" s="21"/>
-      <c r="AN109" s="21"/>
-      <c r="AO109" s="21"/>
-      <c r="AP109" s="21"/>
-      <c r="AQ109" s="21"/>
-      <c r="AR109" s="21"/>
-      <c r="AS109" s="21"/>
-      <c r="AT109" s="21"/>
-      <c r="AU109" s="21"/>
-      <c r="AV109" s="21"/>
-      <c r="AW109" s="21"/>
-      <c r="AX109" s="21"/>
-      <c r="AY109" s="21"/>
-      <c r="AZ109" s="21"/>
-      <c r="BA109" s="21"/>
-      <c r="BB109" s="21"/>
-      <c r="BC109" s="21"/>
-      <c r="BD109" s="21"/>
-      <c r="BE109" s="21"/>
-      <c r="BF109" s="21"/>
-      <c r="BG109" s="21"/>
-      <c r="BH109" s="21"/>
-      <c r="BI109" s="21"/>
-      <c r="BJ109" s="21"/>
-      <c r="BK109" s="21"/>
-      <c r="BL109" s="21"/>
-      <c r="BM109" s="21"/>
-      <c r="BN109" s="21"/>
-    </row>
-    <row r="110" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="38">
+    <row r="109" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="38">
         <v>145</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" s="24">
+        <v>400</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J109" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M109" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N109" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O109" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="35"/>
+      <c r="W109" s="35"/>
+      <c r="X109" s="35"/>
+      <c r="Y109" s="35"/>
+      <c r="Z109" s="35"/>
+      <c r="AA109" s="35"/>
+      <c r="AB109" s="35"/>
+      <c r="AC109" s="35"/>
+      <c r="AD109" s="35"/>
+      <c r="AE109" s="35"/>
+      <c r="AF109" s="35"/>
+      <c r="AG109" s="35"/>
+      <c r="AH109" s="35"/>
+      <c r="AI109" s="35"/>
+      <c r="AJ109" s="35"/>
+      <c r="AK109" s="35"/>
+      <c r="AL109" s="35"/>
+      <c r="AM109" s="35"/>
+      <c r="AN109" s="35"/>
+      <c r="AO109" s="35"/>
+      <c r="AP109" s="35"/>
+      <c r="AQ109" s="35"/>
+      <c r="AR109" s="35"/>
+      <c r="AS109" s="35"/>
+      <c r="AT109" s="35"/>
+      <c r="AU109" s="35"/>
+      <c r="AV109" s="35"/>
+      <c r="AW109" s="35"/>
+      <c r="AX109" s="35"/>
+      <c r="AY109" s="35"/>
+      <c r="AZ109" s="35"/>
+      <c r="BA109" s="35"/>
+      <c r="BB109" s="35"/>
+      <c r="BC109" s="35"/>
+      <c r="BD109" s="35"/>
+      <c r="BE109" s="35"/>
+      <c r="BF109" s="35"/>
+      <c r="BG109" s="35"/>
+      <c r="BH109" s="35"/>
+      <c r="BI109" s="35"/>
+      <c r="BJ109" s="35"/>
+      <c r="BK109" s="35"/>
+      <c r="BL109" s="35"/>
+      <c r="BM109" s="35"/>
+      <c r="BN109" s="35"/>
+    </row>
+    <row r="110" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>85</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>12</v>
+      <c r="C110" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="4">
+        <v>8</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" s="24">
-        <v>400</v>
+        <v>142</v>
+      </c>
+      <c r="G110" s="44">
+        <v>200</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J110" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K110" s="38" t="s">
+      <c r="K110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L110" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M110" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N110" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O110" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35"/>
-      <c r="S110" s="35"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
-      <c r="V110" s="35"/>
-      <c r="W110" s="35"/>
-      <c r="X110" s="35"/>
-      <c r="Y110" s="35"/>
-      <c r="Z110" s="35"/>
-      <c r="AA110" s="35"/>
-      <c r="AB110" s="35"/>
-      <c r="AC110" s="35"/>
-      <c r="AD110" s="35"/>
-      <c r="AE110" s="35"/>
-      <c r="AF110" s="35"/>
-      <c r="AG110" s="35"/>
-      <c r="AH110" s="35"/>
-      <c r="AI110" s="35"/>
-      <c r="AJ110" s="35"/>
-      <c r="AK110" s="35"/>
-      <c r="AL110" s="35"/>
-      <c r="AM110" s="35"/>
-      <c r="AN110" s="35"/>
-      <c r="AO110" s="35"/>
-      <c r="AP110" s="35"/>
-      <c r="AQ110" s="35"/>
-      <c r="AR110" s="35"/>
-      <c r="AS110" s="35"/>
-      <c r="AT110" s="35"/>
-      <c r="AU110" s="35"/>
-      <c r="AV110" s="35"/>
-      <c r="AW110" s="35"/>
-      <c r="AX110" s="35"/>
-      <c r="AY110" s="35"/>
-      <c r="AZ110" s="35"/>
-      <c r="BA110" s="35"/>
-      <c r="BB110" s="35"/>
-      <c r="BC110" s="35"/>
-      <c r="BD110" s="35"/>
-      <c r="BE110" s="35"/>
-      <c r="BF110" s="35"/>
-      <c r="BG110" s="35"/>
-      <c r="BH110" s="35"/>
-      <c r="BI110" s="35"/>
-      <c r="BJ110" s="35"/>
-      <c r="BK110" s="35"/>
-      <c r="BL110" s="35"/>
-      <c r="BM110" s="35"/>
-      <c r="BN110" s="35"/>
-    </row>
-    <row r="111" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>85</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" s="4">
-        <v>8</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G111" s="44">
-        <v>200</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L111" s="4">
+      <c r="L110" s="4">
         <v>1010</v>
       </c>
-      <c r="M111" s="30" t="s">
+      <c r="M110" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N111" s="30" t="s">
+      <c r="N110" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O111" s="30" t="s">
+      <c r="O110" s="30" t="s">
         <v>1</v>
       </c>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="22"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="22"/>
+      <c r="AD110" s="22"/>
+      <c r="AE110" s="22"/>
+      <c r="AF110" s="22"/>
+      <c r="AG110" s="22"/>
+      <c r="AH110" s="22"/>
+      <c r="AI110" s="22"/>
+      <c r="AJ110" s="22"/>
+      <c r="AK110" s="22"/>
+      <c r="AL110" s="22"/>
+      <c r="AM110" s="22"/>
+      <c r="AN110" s="22"/>
+      <c r="AO110" s="22"/>
+      <c r="AP110" s="22"/>
+      <c r="AQ110" s="22"/>
+      <c r="AR110" s="22"/>
+      <c r="AS110" s="22"/>
+      <c r="AT110" s="22"/>
+      <c r="AU110" s="22"/>
+      <c r="AV110" s="22"/>
+      <c r="AW110" s="22"/>
+      <c r="AX110" s="22"/>
+      <c r="AY110" s="22"/>
+      <c r="AZ110" s="22"/>
+      <c r="BA110" s="22"/>
+      <c r="BB110" s="22"/>
+      <c r="BC110" s="22"/>
+      <c r="BD110" s="22"/>
+      <c r="BE110" s="22"/>
+      <c r="BF110" s="22"/>
+      <c r="BG110" s="22"/>
+      <c r="BH110" s="22"/>
+      <c r="BI110" s="22"/>
+      <c r="BJ110" s="22"/>
+      <c r="BK110" s="22"/>
+      <c r="BL110" s="22"/>
+      <c r="BM110" s="22"/>
+      <c r="BN110" s="22"/>
+    </row>
+    <row r="111" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="98"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="98"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="98"/>
+      <c r="H111" s="98"/>
+      <c r="I111" s="98"/>
+      <c r="J111" s="98"/>
+      <c r="K111" s="98"/>
+      <c r="L111" s="98"/>
+      <c r="M111" s="98"/>
+      <c r="N111" s="98"/>
+      <c r="O111" s="98"/>
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
       <c r="R111" s="22"/>
@@ -31315,24 +31281,24 @@
       <c r="BM111" s="22"/>
       <c r="BN111" s="22"/>
     </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="B112" s="98"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="98"/>
-      <c r="G112" s="98"/>
-      <c r="H112" s="98"/>
-      <c r="I112" s="98"/>
-      <c r="J112" s="98"/>
-      <c r="K112" s="98"/>
-      <c r="L112" s="98"/>
-      <c r="M112" s="98"/>
-      <c r="N112" s="98"/>
-      <c r="O112" s="98"/>
+    <row r="112" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="99"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="99"/>
+      <c r="J112" s="99"/>
+      <c r="K112" s="99"/>
+      <c r="L112" s="99"/>
+      <c r="M112" s="99"/>
+      <c r="N112" s="99"/>
+      <c r="O112" s="99"/>
       <c r="P112" s="22"/>
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
@@ -31385,183 +31351,160 @@
       <c r="BM112" s="22"/>
       <c r="BN112" s="22"/>
     </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="99"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="99"/>
-      <c r="O113" s="99"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="22"/>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="22"/>
-      <c r="AM113" s="22"/>
-      <c r="AN113" s="22"/>
-      <c r="AO113" s="22"/>
-      <c r="AP113" s="22"/>
-      <c r="AQ113" s="22"/>
-      <c r="AR113" s="22"/>
-      <c r="AS113" s="22"/>
-      <c r="AT113" s="22"/>
-      <c r="AU113" s="22"/>
-      <c r="AV113" s="22"/>
-      <c r="AW113" s="22"/>
-      <c r="AX113" s="22"/>
-      <c r="AY113" s="22"/>
-      <c r="AZ113" s="22"/>
-      <c r="BA113" s="22"/>
-      <c r="BB113" s="22"/>
-      <c r="BC113" s="22"/>
-      <c r="BD113" s="22"/>
-      <c r="BE113" s="22"/>
-      <c r="BF113" s="22"/>
-      <c r="BG113" s="22"/>
-      <c r="BH113" s="22"/>
-      <c r="BI113" s="22"/>
-      <c r="BJ113" s="22"/>
-      <c r="BK113" s="22"/>
-      <c r="BL113" s="22"/>
-      <c r="BM113" s="22"/>
-      <c r="BN113" s="22"/>
-    </row>
-    <row r="114" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="92">
+    <row r="113" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="92">
         <v>146</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="92">
+        <v>403</v>
+      </c>
+      <c r="H113" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J113" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L113" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M113" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N113" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O113" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+      <c r="AA113" s="21"/>
+      <c r="AB113" s="21"/>
+      <c r="AC113" s="21"/>
+      <c r="AD113" s="21"/>
+      <c r="AE113" s="21"/>
+      <c r="AF113" s="21"/>
+      <c r="AG113" s="21"/>
+      <c r="AH113" s="21"/>
+      <c r="AI113" s="21"/>
+      <c r="AJ113" s="21"/>
+      <c r="AK113" s="21"/>
+      <c r="AL113" s="21"/>
+      <c r="AM113" s="21"/>
+      <c r="AN113" s="21"/>
+      <c r="AO113" s="21"/>
+      <c r="AP113" s="21"/>
+      <c r="AQ113" s="21"/>
+      <c r="AR113" s="21"/>
+      <c r="AS113" s="21"/>
+      <c r="AT113" s="21"/>
+      <c r="AU113" s="21"/>
+      <c r="AV113" s="21"/>
+      <c r="AW113" s="21"/>
+      <c r="AX113" s="21"/>
+      <c r="AY113" s="21"/>
+      <c r="AZ113" s="21"/>
+      <c r="BA113" s="21"/>
+      <c r="BB113" s="21"/>
+      <c r="BC113" s="21"/>
+      <c r="BD113" s="21"/>
+      <c r="BE113" s="21"/>
+      <c r="BF113" s="21"/>
+      <c r="BG113" s="21"/>
+      <c r="BH113" s="21"/>
+      <c r="BI113" s="21"/>
+      <c r="BJ113" s="21"/>
+      <c r="BK113" s="21"/>
+      <c r="BL113" s="21"/>
+      <c r="BM113" s="21"/>
+      <c r="BN113" s="21"/>
+    </row>
+    <row r="114" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>86</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D114" s="92" t="s">
+      <c r="C114" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="92" t="s">
+      <c r="E114" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F114" s="92" t="s">
+      <c r="F114" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G114" s="92">
-        <v>403</v>
-      </c>
-      <c r="H114" s="92" t="s">
+      <c r="G114" s="24">
+        <v>401</v>
+      </c>
+      <c r="H114" s="58" t="s">
         <v>218</v>
       </c>
       <c r="I114" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J114" s="92" t="s">
+      <c r="J114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K114" s="92" t="s">
+      <c r="K114" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L114" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M114" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N114" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O114" s="93" t="s">
+      <c r="L114" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N114" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P114" s="21"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="21"/>
-      <c r="S114" s="21"/>
-      <c r="T114" s="21"/>
-      <c r="U114" s="21"/>
-      <c r="V114" s="21"/>
-      <c r="W114" s="21"/>
-      <c r="X114" s="21"/>
-      <c r="Y114" s="21"/>
-      <c r="Z114" s="21"/>
-      <c r="AA114" s="21"/>
-      <c r="AB114" s="21"/>
-      <c r="AC114" s="21"/>
-      <c r="AD114" s="21"/>
-      <c r="AE114" s="21"/>
-      <c r="AF114" s="21"/>
-      <c r="AG114" s="21"/>
-      <c r="AH114" s="21"/>
-      <c r="AI114" s="21"/>
-      <c r="AJ114" s="21"/>
-      <c r="AK114" s="21"/>
-      <c r="AL114" s="21"/>
-      <c r="AM114" s="21"/>
-      <c r="AN114" s="21"/>
-      <c r="AO114" s="21"/>
-      <c r="AP114" s="21"/>
-      <c r="AQ114" s="21"/>
-      <c r="AR114" s="21"/>
-      <c r="AS114" s="21"/>
-      <c r="AT114" s="21"/>
-      <c r="AU114" s="21"/>
-      <c r="AV114" s="21"/>
-      <c r="AW114" s="21"/>
-      <c r="AX114" s="21"/>
-      <c r="AY114" s="21"/>
-      <c r="AZ114" s="21"/>
-      <c r="BA114" s="21"/>
-      <c r="BB114" s="21"/>
-      <c r="BC114" s="21"/>
-      <c r="BD114" s="21"/>
-      <c r="BE114" s="21"/>
-      <c r="BF114" s="21"/>
-      <c r="BG114" s="21"/>
-      <c r="BH114" s="21"/>
-      <c r="BI114" s="21"/>
-      <c r="BJ114" s="21"/>
-      <c r="BK114" s="21"/>
-      <c r="BL114" s="21"/>
-      <c r="BM114" s="21"/>
-      <c r="BN114" s="21"/>
-    </row>
-    <row r="115" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O114" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="51" t="s">
-        <v>156</v>
+      <c r="C115" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>12</v>
@@ -31588,27 +31531,78 @@
         <v>34</v>
       </c>
       <c r="L115" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M115" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N115" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O115" s="49" t="s">
+      <c r="O115" s="47" t="s">
         <v>12</v>
       </c>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="22"/>
+      <c r="AD115" s="22"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="22"/>
+      <c r="AI115" s="22"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="22"/>
+      <c r="AP115" s="22"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="22"/>
+      <c r="AT115" s="22"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="22"/>
+      <c r="AY115" s="22"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="22"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="22"/>
+      <c r="BL115" s="22"/>
+      <c r="BM115" s="22"/>
+      <c r="BN115" s="22"/>
     </row>
     <row r="116" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
@@ -31620,7 +31614,7 @@
         <v>142</v>
       </c>
       <c r="G116" s="24">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H116" s="58" t="s">
         <v>218</v>
@@ -31632,19 +31626,19 @@
         <v>7</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L116" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N116" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O116" s="47" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="L116" s="10">
+        <v>1003</v>
+      </c>
+      <c r="M116" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O116" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P116" s="22"/>
       <c r="Q116" s="22"/>
@@ -31698,15 +31692,15 @@
       <c r="BM116" s="22"/>
       <c r="BN116" s="22"/>
     </row>
-    <row r="117" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>267</v>
+      <c r="C117" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31730,13 +31724,13 @@
         <v>7</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L117" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N117" s="30" t="s">
         <v>136</v>
@@ -31796,15 +31790,15 @@
       <c r="BM117" s="22"/>
       <c r="BN117" s="22"/>
     </row>
-    <row r="118" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31828,13 +31822,13 @@
         <v>7</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L118" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M118" s="30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N118" s="30" t="s">
         <v>136</v>
@@ -31894,26 +31888,26 @@
       <c r="BM118" s="22"/>
       <c r="BN118" s="22"/>
     </row>
-    <row r="119" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="C119" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G119" s="24">
+      <c r="G119" s="54">
         <v>400</v>
       </c>
       <c r="H119" s="58" t="s">
@@ -31922,23 +31916,23 @@
       <c r="I119" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J119" s="4" t="s">
+      <c r="J119" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L119" s="10">
-        <v>1005</v>
-      </c>
-      <c r="M119" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N119" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O119" s="30" t="s">
-        <v>45</v>
+      <c r="K119" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M119" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N119" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O119" s="63" t="s">
+        <v>12</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
@@ -31992,27 +31986,27 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="53" t="s">
+      <c r="C120" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="53" t="s">
+      <c r="E120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F120" s="53" t="s">
+      <c r="F120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G120" s="54">
-        <v>400</v>
+      <c r="G120" s="24">
+        <v>404</v>
       </c>
       <c r="H120" s="58" t="s">
         <v>218</v>
@@ -32020,85 +32014,85 @@
       <c r="I120" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J120" s="53" t="s">
+      <c r="J120" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="54" t="s">
+      <c r="K120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L120" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M120" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N120" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O120" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22"/>
-      <c r="AM120" s="22"/>
-      <c r="AN120" s="22"/>
-      <c r="AO120" s="22"/>
-      <c r="AP120" s="22"/>
-      <c r="AQ120" s="22"/>
-      <c r="AR120" s="22"/>
-      <c r="AS120" s="22"/>
-      <c r="AT120" s="22"/>
-      <c r="AU120" s="22"/>
-      <c r="AV120" s="22"/>
-      <c r="AW120" s="22"/>
-      <c r="AX120" s="22"/>
-      <c r="AY120" s="22"/>
-      <c r="AZ120" s="22"/>
-      <c r="BA120" s="22"/>
-      <c r="BB120" s="22"/>
-      <c r="BC120" s="22"/>
-      <c r="BD120" s="22"/>
-      <c r="BE120" s="22"/>
-      <c r="BF120" s="22"/>
-      <c r="BG120" s="22"/>
-      <c r="BH120" s="22"/>
-      <c r="BI120" s="22"/>
-      <c r="BJ120" s="22"/>
-      <c r="BK120" s="22"/>
-      <c r="BL120" s="22"/>
-      <c r="BM120" s="22"/>
-      <c r="BN120" s="22"/>
-    </row>
-    <row r="121" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="10">
+        <v>1006</v>
+      </c>
+      <c r="M120" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O120" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="21"/>
+      <c r="AA120" s="21"/>
+      <c r="AB120" s="21"/>
+      <c r="AC120" s="21"/>
+      <c r="AD120" s="21"/>
+      <c r="AE120" s="21"/>
+      <c r="AF120" s="21"/>
+      <c r="AG120" s="21"/>
+      <c r="AH120" s="21"/>
+      <c r="AI120" s="21"/>
+      <c r="AJ120" s="21"/>
+      <c r="AK120" s="21"/>
+      <c r="AL120" s="21"/>
+      <c r="AM120" s="21"/>
+      <c r="AN120" s="21"/>
+      <c r="AO120" s="21"/>
+      <c r="AP120" s="21"/>
+      <c r="AQ120" s="21"/>
+      <c r="AR120" s="21"/>
+      <c r="AS120" s="21"/>
+      <c r="AT120" s="21"/>
+      <c r="AU120" s="21"/>
+      <c r="AV120" s="21"/>
+      <c r="AW120" s="21"/>
+      <c r="AX120" s="21"/>
+      <c r="AY120" s="21"/>
+      <c r="AZ120" s="21"/>
+      <c r="BA120" s="21"/>
+      <c r="BB120" s="21"/>
+      <c r="BC120" s="21"/>
+      <c r="BD120" s="21"/>
+      <c r="BE120" s="21"/>
+      <c r="BF120" s="21"/>
+      <c r="BG120" s="21"/>
+      <c r="BH120" s="21"/>
+      <c r="BI120" s="21"/>
+      <c r="BJ120" s="21"/>
+      <c r="BK120" s="21"/>
+      <c r="BL120" s="21"/>
+      <c r="BM120" s="21"/>
+      <c r="BN120" s="21"/>
+    </row>
+    <row r="121" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>12</v>
@@ -32122,13 +32116,13 @@
         <v>7</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L121" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>136</v>
@@ -32136,67 +32130,16 @@
       <c r="O121" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P121" s="21"/>
-      <c r="Q121" s="21"/>
-      <c r="R121" s="21"/>
-      <c r="S121" s="21"/>
-      <c r="T121" s="21"/>
-      <c r="U121" s="21"/>
-      <c r="V121" s="21"/>
-      <c r="W121" s="21"/>
-      <c r="X121" s="21"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="21"/>
-      <c r="AA121" s="21"/>
-      <c r="AB121" s="21"/>
-      <c r="AC121" s="21"/>
-      <c r="AD121" s="21"/>
-      <c r="AE121" s="21"/>
-      <c r="AF121" s="21"/>
-      <c r="AG121" s="21"/>
-      <c r="AH121" s="21"/>
-      <c r="AI121" s="21"/>
-      <c r="AJ121" s="21"/>
-      <c r="AK121" s="21"/>
-      <c r="AL121" s="21"/>
-      <c r="AM121" s="21"/>
-      <c r="AN121" s="21"/>
-      <c r="AO121" s="21"/>
-      <c r="AP121" s="21"/>
-      <c r="AQ121" s="21"/>
-      <c r="AR121" s="21"/>
-      <c r="AS121" s="21"/>
-      <c r="AT121" s="21"/>
-      <c r="AU121" s="21"/>
-      <c r="AV121" s="21"/>
-      <c r="AW121" s="21"/>
-      <c r="AX121" s="21"/>
-      <c r="AY121" s="21"/>
-      <c r="AZ121" s="21"/>
-      <c r="BA121" s="21"/>
-      <c r="BB121" s="21"/>
-      <c r="BC121" s="21"/>
-      <c r="BD121" s="21"/>
-      <c r="BE121" s="21"/>
-      <c r="BF121" s="21"/>
-      <c r="BG121" s="21"/>
-      <c r="BH121" s="21"/>
-      <c r="BI121" s="21"/>
-      <c r="BJ121" s="21"/>
-      <c r="BK121" s="21"/>
-      <c r="BL121" s="21"/>
-      <c r="BM121" s="21"/>
-      <c r="BN121" s="21"/>
-    </row>
-    <row r="122" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>12</v>
@@ -32208,7 +32151,7 @@
         <v>142</v>
       </c>
       <c r="G122" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H122" s="58" t="s">
         <v>218</v>
@@ -32223,10 +32166,10 @@
         <v>32</v>
       </c>
       <c r="L122" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N122" s="30" t="s">
         <v>136</v>
@@ -32235,15 +32178,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>94</v>
+    <row r="123" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A123" s="26">
+        <v>141</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>91</v>
+      <c r="C123" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>12</v>
@@ -32251,11 +32194,11 @@
       <c r="E123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G123" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H123" s="58" t="s">
         <v>218</v>
@@ -32269,40 +32212,91 @@
       <c r="K123" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L123" s="10">
-        <v>1008</v>
-      </c>
-      <c r="M123" s="30" t="s">
-        <v>16</v>
+      <c r="L123" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M123" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N123" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O123" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A124" s="26">
-        <v>141</v>
+        <v>233</v>
+      </c>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21"/>
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21"/>
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21"/>
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
+      <c r="AW123" s="21"/>
+      <c r="AX123" s="21"/>
+      <c r="AY123" s="21"/>
+      <c r="AZ123" s="21"/>
+      <c r="BA123" s="21"/>
+      <c r="BB123" s="21"/>
+      <c r="BC123" s="21"/>
+      <c r="BD123" s="21"/>
+      <c r="BE123" s="21"/>
+      <c r="BF123" s="21"/>
+      <c r="BG123" s="21"/>
+      <c r="BH123" s="21"/>
+      <c r="BI123" s="21"/>
+      <c r="BJ123" s="21"/>
+      <c r="BK123" s="21"/>
+      <c r="BL123" s="21"/>
+      <c r="BM123" s="21"/>
+      <c r="BN123" s="21"/>
+    </row>
+    <row r="124" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>95</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="C124" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="26" t="s">
+      <c r="F124" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G124" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H124" s="58" t="s">
         <v>218</v>
@@ -32314,83 +32308,32 @@
         <v>7</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L124" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M124" s="84" t="s">
-        <v>232</v>
+        <v>34</v>
+      </c>
+      <c r="L124" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M124" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O124" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="21"/>
-      <c r="AI124" s="21"/>
-      <c r="AJ124" s="21"/>
-      <c r="AK124" s="21"/>
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="21"/>
-      <c r="AP124" s="21"/>
-      <c r="AQ124" s="21"/>
-      <c r="AR124" s="21"/>
-      <c r="AS124" s="21"/>
-      <c r="AT124" s="21"/>
-      <c r="AU124" s="21"/>
-      <c r="AV124" s="21"/>
-      <c r="AW124" s="21"/>
-      <c r="AX124" s="21"/>
-      <c r="AY124" s="21"/>
-      <c r="AZ124" s="21"/>
-      <c r="BA124" s="21"/>
-      <c r="BB124" s="21"/>
-      <c r="BC124" s="21"/>
-      <c r="BD124" s="21"/>
-      <c r="BE124" s="21"/>
-      <c r="BF124" s="21"/>
-      <c r="BG124" s="21"/>
-      <c r="BH124" s="21"/>
-      <c r="BI124" s="21"/>
-      <c r="BJ124" s="21"/>
-      <c r="BK124" s="21"/>
-      <c r="BL124" s="21"/>
-      <c r="BM124" s="21"/>
-      <c r="BN124" s="21"/>
-    </row>
-    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D125" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -32400,7 +32343,7 @@
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32414,187 +32357,187 @@
       <c r="K125" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L125" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M125" s="32" t="s">
-        <v>204</v>
+      <c r="L125" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O125" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+      <c r="Y125" s="22"/>
+      <c r="Z125" s="22"/>
+      <c r="AA125" s="22"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="22"/>
+      <c r="AD125" s="22"/>
+      <c r="AE125" s="22"/>
+      <c r="AF125" s="22"/>
+      <c r="AG125" s="22"/>
+      <c r="AH125" s="22"/>
+      <c r="AI125" s="22"/>
+      <c r="AJ125" s="22"/>
+      <c r="AK125" s="22"/>
+      <c r="AL125" s="22"/>
+      <c r="AM125" s="22"/>
+      <c r="AN125" s="22"/>
+      <c r="AO125" s="22"/>
+      <c r="AP125" s="22"/>
+      <c r="AQ125" s="22"/>
+      <c r="AR125" s="22"/>
+      <c r="AS125" s="22"/>
+      <c r="AT125" s="22"/>
+      <c r="AU125" s="22"/>
+      <c r="AV125" s="22"/>
+      <c r="AW125" s="22"/>
+      <c r="AX125" s="22"/>
+      <c r="AY125" s="22"/>
+      <c r="AZ125" s="22"/>
+      <c r="BA125" s="22"/>
+      <c r="BB125" s="22"/>
+      <c r="BC125" s="22"/>
+      <c r="BD125" s="22"/>
+      <c r="BE125" s="22"/>
+      <c r="BF125" s="22"/>
+      <c r="BG125" s="22"/>
+      <c r="BH125" s="22"/>
+      <c r="BI125" s="22"/>
+      <c r="BJ125" s="22"/>
+      <c r="BK125" s="22"/>
+      <c r="BL125" s="22"/>
+      <c r="BM125" s="22"/>
+      <c r="BN125" s="22"/>
+    </row>
+    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
+        <v>142</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="65">
+        <v>413</v>
+      </c>
+      <c r="H126" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I126" s="65"/>
+      <c r="J126" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
+    </row>
+    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A127" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="99"/>
+      <c r="L127" s="99"/>
+      <c r="M127" s="99"/>
+      <c r="N127" s="99"/>
+      <c r="O127" s="99"/>
+    </row>
+    <row r="128" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>154</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G126" s="24">
-        <v>400</v>
-      </c>
-      <c r="H126" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J126" s="4" t="s">
+      <c r="G128" s="4">
+        <v>200</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J128" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L126" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M126" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N126" s="30" t="s">
+      <c r="K128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M128" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="N128" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O126" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22"/>
-      <c r="T126" s="22"/>
-      <c r="U126" s="22"/>
-      <c r="V126" s="22"/>
-      <c r="W126" s="22"/>
-      <c r="X126" s="22"/>
-      <c r="Y126" s="22"/>
-      <c r="Z126" s="22"/>
-      <c r="AA126" s="22"/>
-      <c r="AB126" s="22"/>
-      <c r="AC126" s="22"/>
-      <c r="AD126" s="22"/>
-      <c r="AE126" s="22"/>
-      <c r="AF126" s="22"/>
-      <c r="AG126" s="22"/>
-      <c r="AH126" s="22"/>
-      <c r="AI126" s="22"/>
-      <c r="AJ126" s="22"/>
-      <c r="AK126" s="22"/>
-      <c r="AL126" s="22"/>
-      <c r="AM126" s="22"/>
-      <c r="AN126" s="22"/>
-      <c r="AO126" s="22"/>
-      <c r="AP126" s="22"/>
-      <c r="AQ126" s="22"/>
-      <c r="AR126" s="22"/>
-      <c r="AS126" s="22"/>
-      <c r="AT126" s="22"/>
-      <c r="AU126" s="22"/>
-      <c r="AV126" s="22"/>
-      <c r="AW126" s="22"/>
-      <c r="AX126" s="22"/>
-      <c r="AY126" s="22"/>
-      <c r="AZ126" s="22"/>
-      <c r="BA126" s="22"/>
-      <c r="BB126" s="22"/>
-      <c r="BC126" s="22"/>
-      <c r="BD126" s="22"/>
-      <c r="BE126" s="22"/>
-      <c r="BF126" s="22"/>
-      <c r="BG126" s="22"/>
-      <c r="BH126" s="22"/>
-      <c r="BI126" s="22"/>
-      <c r="BJ126" s="22"/>
-      <c r="BK126" s="22"/>
-      <c r="BL126" s="22"/>
-      <c r="BM126" s="22"/>
-      <c r="BN126" s="22"/>
-    </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A127" s="26">
-        <v>142</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="65">
-        <v>413</v>
-      </c>
-      <c r="H127" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I127" s="65"/>
-      <c r="J127" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="N127" s="33"/>
-      <c r="O127" s="33"/>
-    </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A128" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="99"/>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="99"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="99"/>
-      <c r="H128" s="99"/>
-      <c r="I128" s="99"/>
-      <c r="J128" s="99"/>
-      <c r="K128" s="99"/>
-      <c r="L128" s="99"/>
-      <c r="M128" s="99"/>
-      <c r="N128" s="99"/>
-      <c r="O128" s="99"/>
+      <c r="O128" s="49" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="129" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>154</v>
+      <c r="A129" s="8">
+        <v>151</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="49" t="s">
-        <v>277</v>
+      <c r="C129" s="96" t="s">
+        <v>269</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="38">
         <v>200</v>
       </c>
       <c r="H129" s="24" t="s">
@@ -32609,28 +32552,28 @@
       <c r="K129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L129" s="4">
-        <v>4006</v>
-      </c>
-      <c r="M129" s="49" t="s">
-        <v>277</v>
+      <c r="L129" s="8">
+        <v>4005</v>
+      </c>
+      <c r="M129" s="96" t="s">
+        <v>269</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O129" s="49" t="s">
-        <v>278</v>
+      <c r="O129" s="96" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
-        <v>151</v>
+      <c r="A130" s="4">
+        <v>97</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C130" s="96" t="s">
-        <v>271</v>
+      <c r="C130" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>12</v>
@@ -32653,33 +32596,33 @@
       <c r="J130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>11</v>
+      <c r="K130" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="L130" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M130" s="96" t="s">
-        <v>271</v>
+        <v>4002</v>
+      </c>
+      <c r="M130" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="N130" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O130" s="96" t="s">
-        <v>270</v>
+      <c r="O130" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="C131" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -32700,31 +32643,31 @@
       <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K131" s="5" t="s">
+      <c r="K131" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L131" s="8">
-        <v>4002</v>
+      <c r="L131" s="26">
+        <v>4003</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O131" s="31" t="s">
-        <v>64</v>
+      <c r="O131" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D132" s="26" t="s">
         <v>12</v>
@@ -32751,35 +32694,35 @@
         <v>32</v>
       </c>
       <c r="L132" s="26">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="33" t="s">
-        <v>1</v>
+      <c r="O132" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="5" t="s">
+      <c r="C133" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" s="4">
+        <v>8</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G133" s="38">
@@ -32791,217 +32734,217 @@
       <c r="I133" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J133" s="5" t="s">
+      <c r="J133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L133" s="26">
-        <v>4004</v>
-      </c>
-      <c r="M133" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="N133" s="31" t="s">
+      <c r="K133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M133" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O133" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
-        <v>99</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D134" s="4">
-        <v>8</v>
-      </c>
-      <c r="E134" s="24" t="s">
+      <c r="O133" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="98"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="98"/>
+      <c r="E134" s="98"/>
+      <c r="F134" s="98"/>
+      <c r="G134" s="98"/>
+      <c r="H134" s="98"/>
+      <c r="I134" s="98"/>
+      <c r="J134" s="98"/>
+      <c r="K134" s="98"/>
+      <c r="L134" s="98"/>
+      <c r="M134" s="98"/>
+      <c r="N134" s="98"/>
+      <c r="O134" s="98"/>
+    </row>
+    <row r="135" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A135" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="99"/>
+      <c r="C135" s="99"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="99"/>
+      <c r="F135" s="99"/>
+      <c r="G135" s="99"/>
+      <c r="H135" s="99"/>
+      <c r="I135" s="99"/>
+      <c r="J135" s="99"/>
+      <c r="K135" s="99"/>
+      <c r="L135" s="99"/>
+      <c r="M135" s="99"/>
+      <c r="N135" s="99"/>
+      <c r="O135" s="99"/>
+    </row>
+    <row r="136" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="92">
+        <v>146</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D136" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F136" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G134" s="38">
-        <v>200</v>
-      </c>
-      <c r="H134" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J134" s="4" t="s">
+      <c r="G136" s="92">
+        <v>403</v>
+      </c>
+      <c r="H136" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J136" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L134" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M134" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N134" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O134" s="30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="B135" s="98"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="98"/>
-      <c r="E135" s="98"/>
-      <c r="F135" s="98"/>
-      <c r="G135" s="98"/>
-      <c r="H135" s="98"/>
-      <c r="I135" s="98"/>
-      <c r="J135" s="98"/>
-      <c r="K135" s="98"/>
-      <c r="L135" s="98"/>
-      <c r="M135" s="98"/>
-      <c r="N135" s="98"/>
-      <c r="O135" s="98"/>
-    </row>
-    <row r="136" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A136" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B136" s="99"/>
-      <c r="C136" s="99"/>
-      <c r="D136" s="99"/>
-      <c r="E136" s="99"/>
-      <c r="F136" s="99"/>
-      <c r="G136" s="99"/>
-      <c r="H136" s="99"/>
-      <c r="I136" s="99"/>
-      <c r="J136" s="99"/>
-      <c r="K136" s="99"/>
-      <c r="L136" s="99"/>
-      <c r="M136" s="99"/>
-      <c r="N136" s="99"/>
-      <c r="O136" s="99"/>
-    </row>
-    <row r="137" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="92">
-        <v>146</v>
+      <c r="K136" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M136" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N136" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O136" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="21"/>
+      <c r="X136" s="21"/>
+      <c r="Y136" s="21"/>
+      <c r="Z136" s="21"/>
+      <c r="AA136" s="21"/>
+      <c r="AB136" s="21"/>
+      <c r="AC136" s="21"/>
+      <c r="AD136" s="21"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="21"/>
+      <c r="AG136" s="21"/>
+      <c r="AH136" s="21"/>
+      <c r="AI136" s="21"/>
+      <c r="AJ136" s="21"/>
+      <c r="AK136" s="21"/>
+      <c r="AL136" s="21"/>
+      <c r="AM136" s="21"/>
+      <c r="AN136" s="21"/>
+      <c r="AO136" s="21"/>
+      <c r="AP136" s="21"/>
+      <c r="AQ136" s="21"/>
+      <c r="AR136" s="21"/>
+      <c r="AS136" s="21"/>
+      <c r="AT136" s="21"/>
+      <c r="AU136" s="21"/>
+      <c r="AV136" s="21"/>
+      <c r="AW136" s="21"/>
+      <c r="AX136" s="21"/>
+      <c r="AY136" s="21"/>
+      <c r="AZ136" s="21"/>
+      <c r="BA136" s="21"/>
+      <c r="BB136" s="21"/>
+      <c r="BC136" s="21"/>
+      <c r="BD136" s="21"/>
+      <c r="BE136" s="21"/>
+      <c r="BF136" s="21"/>
+      <c r="BG136" s="21"/>
+      <c r="BH136" s="21"/>
+      <c r="BI136" s="21"/>
+      <c r="BJ136" s="21"/>
+      <c r="BK136" s="21"/>
+      <c r="BL136" s="21"/>
+      <c r="BM136" s="21"/>
+      <c r="BN136" s="21"/>
+    </row>
+    <row r="137" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>102</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="D137" s="92" t="s">
+      <c r="C137" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="92" t="s">
+      <c r="E137" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F137" s="92" t="s">
+      <c r="F137" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="92">
-        <v>403</v>
-      </c>
-      <c r="H137" s="92" t="s">
+      <c r="G137" s="24">
+        <v>401</v>
+      </c>
+      <c r="H137" s="65" t="s">
         <v>218</v>
       </c>
       <c r="I137" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J137" s="92" t="s">
+      <c r="J137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="92" t="s">
+      <c r="K137" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L137" s="92">
-        <v>1016</v>
-      </c>
-      <c r="M137" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="N137" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="O137" s="93" t="s">
+      <c r="L137" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M137" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N137" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P137" s="21"/>
-      <c r="Q137" s="21"/>
-      <c r="R137" s="21"/>
-      <c r="S137" s="21"/>
-      <c r="T137" s="21"/>
-      <c r="U137" s="21"/>
-      <c r="V137" s="21"/>
-      <c r="W137" s="21"/>
-      <c r="X137" s="21"/>
-      <c r="Y137" s="21"/>
-      <c r="Z137" s="21"/>
-      <c r="AA137" s="21"/>
-      <c r="AB137" s="21"/>
-      <c r="AC137" s="21"/>
-      <c r="AD137" s="21"/>
-      <c r="AE137" s="21"/>
-      <c r="AF137" s="21"/>
-      <c r="AG137" s="21"/>
-      <c r="AH137" s="21"/>
-      <c r="AI137" s="21"/>
-      <c r="AJ137" s="21"/>
-      <c r="AK137" s="21"/>
-      <c r="AL137" s="21"/>
-      <c r="AM137" s="21"/>
-      <c r="AN137" s="21"/>
-      <c r="AO137" s="21"/>
-      <c r="AP137" s="21"/>
-      <c r="AQ137" s="21"/>
-      <c r="AR137" s="21"/>
-      <c r="AS137" s="21"/>
-      <c r="AT137" s="21"/>
-      <c r="AU137" s="21"/>
-      <c r="AV137" s="21"/>
-      <c r="AW137" s="21"/>
-      <c r="AX137" s="21"/>
-      <c r="AY137" s="21"/>
-      <c r="AZ137" s="21"/>
-      <c r="BA137" s="21"/>
-      <c r="BB137" s="21"/>
-      <c r="BC137" s="21"/>
-      <c r="BD137" s="21"/>
-      <c r="BE137" s="21"/>
-      <c r="BF137" s="21"/>
-      <c r="BG137" s="21"/>
-      <c r="BH137" s="21"/>
-      <c r="BI137" s="21"/>
-      <c r="BJ137" s="21"/>
-      <c r="BK137" s="21"/>
-      <c r="BL137" s="21"/>
-      <c r="BM137" s="21"/>
-      <c r="BN137" s="21"/>
-    </row>
-    <row r="138" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O137" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="32" t="s">
-        <v>156</v>
+      <c r="C138" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>12</v>
@@ -33028,39 +32971,39 @@
         <v>34</v>
       </c>
       <c r="L138" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M138" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N138" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O138" s="49" t="s">
+      <c r="O138" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D139" s="24">
+        <v>201</v>
+      </c>
+      <c r="E139" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="24">
-        <v>401</v>
+      <c r="G139" s="44">
+        <v>400</v>
       </c>
       <c r="H139" s="65" t="s">
         <v>218</v>
@@ -33068,34 +33011,34 @@
       <c r="I139" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K139" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L139" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M139" s="23" t="s">
-        <v>149</v>
+      <c r="K139" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" s="40">
+        <v>1003</v>
+      </c>
+      <c r="M139" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="N139" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O139" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O139" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="D140" s="24">
         <v>201</v>
@@ -33106,7 +33049,7 @@
       <c r="F140" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="44">
+      <c r="G140" s="24">
         <v>400</v>
       </c>
       <c r="H140" s="65" t="s">
@@ -33119,13 +33062,13 @@
         <v>7</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L140" s="40">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="L140" s="25">
+        <v>1004</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N140" s="32" t="s">
         <v>57</v>
@@ -33134,26 +33077,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" s="24">
-        <v>201</v>
-      </c>
-      <c r="E141" s="24" t="s">
+      <c r="C141" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="24">
+      <c r="G141" s="54">
         <v>400</v>
       </c>
       <c r="H141" s="65" t="s">
@@ -33162,46 +33105,46 @@
       <c r="I141" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="24" t="s">
+      <c r="J141" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K141" s="24" t="s">
+      <c r="K141" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M141" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N141" s="32" t="s">
+      <c r="L141" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M141" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N141" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O141" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="O141" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C142" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D142" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="53" t="s">
+      <c r="C142" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142" s="24">
+        <v>202</v>
+      </c>
+      <c r="E142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="53" t="s">
+      <c r="F142" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="54">
-        <v>400</v>
+      <c r="G142" s="44">
+        <v>403</v>
       </c>
       <c r="H142" s="65" t="s">
         <v>218</v>
@@ -33209,34 +33152,34 @@
       <c r="I142" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J142" s="53" t="s">
+      <c r="J142" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K142" s="54" t="s">
+      <c r="K142" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M142" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N142" s="52" t="s">
+      <c r="L142" s="25">
+        <v>1006</v>
+      </c>
+      <c r="M142" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N142" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O142" s="63" t="s">
-        <v>12</v>
+      <c r="O142" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D143" s="24">
         <v>202</v>
@@ -33260,13 +33203,13 @@
         <v>7</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L143" s="25">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
@@ -33275,15 +33218,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D144" s="24">
         <v>202</v>
@@ -33294,7 +33237,7 @@
       <c r="F144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="44">
+      <c r="G144" s="24">
         <v>403</v>
       </c>
       <c r="H144" s="65" t="s">
@@ -33310,10 +33253,10 @@
         <v>32</v>
       </c>
       <c r="L144" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N144" s="32" t="s">
         <v>57</v>
@@ -33324,13 +33267,13 @@
     </row>
     <row r="145" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="D145" s="24">
         <v>202</v>
@@ -33356,11 +33299,11 @@
       <c r="K145" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L145" s="25">
-        <v>1008</v>
+      <c r="L145" s="65">
+        <v>5001</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="N145" s="32" t="s">
         <v>57</v>
@@ -33369,15 +33312,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D146" s="24">
         <v>202</v>
@@ -33388,7 +33331,7 @@
       <c r="F146" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="24">
+      <c r="G146" s="44">
         <v>403</v>
       </c>
       <c r="H146" s="65" t="s">
@@ -33401,42 +33344,42 @@
         <v>7</v>
       </c>
       <c r="K146" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L146" s="65">
-        <v>5001</v>
+        <v>34</v>
+      </c>
+      <c r="L146" s="24">
+        <v>1011</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O146" s="30" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D147" s="24">
-        <v>202</v>
-      </c>
-      <c r="E147" s="24" t="s">
+      <c r="C147" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="4">
+        <v>203</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F147" s="24" t="s">
+      <c r="F147" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="44">
-        <v>403</v>
+      <c r="G147" s="24">
+        <v>400</v>
       </c>
       <c r="H147" s="65" t="s">
         <v>218</v>
@@ -33444,34 +33387,34 @@
       <c r="I147" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J147" s="24" t="s">
+      <c r="J147" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K147" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L147" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M147" s="32" t="s">
-        <v>204</v>
+      <c r="K147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147" s="20">
+        <v>5005</v>
+      </c>
+      <c r="M147" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="N147" s="32" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="O147" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
-        <v>112</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="26">
+        <v>132</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>179</v>
+      <c r="C148" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="D148" s="4">
         <v>203</v>
@@ -33491,19 +33434,19 @@
       <c r="I148" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="58" t="s">
         <v>7</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="20">
-        <v>5005</v>
-      </c>
-      <c r="M148" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="N148" s="32" t="s">
+      <c r="L148" s="26">
+        <v>3003</v>
+      </c>
+      <c r="M148" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="N148" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O148" s="30" t="s">
@@ -33512,16 +33455,16 @@
     </row>
     <row r="149" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A149" s="26">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D149" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>142</v>
@@ -33545,30 +33488,30 @@
         <v>11</v>
       </c>
       <c r="L149" s="26">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="M149" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N149" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O149" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="26">
-        <v>131</v>
+      <c r="O149" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>130</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C150" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D150" s="4">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>142</v>
@@ -33592,30 +33535,30 @@
         <v>11</v>
       </c>
       <c r="L150" s="26">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="M150" s="57" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N150" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O150" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C151" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151" s="4">
         <v>203</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>142</v>
@@ -33639,30 +33582,30 @@
         <v>11</v>
       </c>
       <c r="L151" s="26">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="M151" s="57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O151" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>128</v>
+      <c r="O151" s="57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="26">
+        <v>129</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D152" s="4">
-        <v>203</v>
+      <c r="C152" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>142</v>
@@ -33670,8 +33613,8 @@
       <c r="F152" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G152" s="24">
-        <v>400</v>
+      <c r="G152" s="65">
+        <v>404</v>
       </c>
       <c r="H152" s="65" t="s">
         <v>218</v>
@@ -33685,11 +33628,11 @@
       <c r="K152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L152" s="26">
-        <v>3006</v>
-      </c>
-      <c r="M152" s="57" t="s">
-        <v>200</v>
+      <c r="L152" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M152" s="67" t="s">
+        <v>207</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>216</v>
@@ -33699,51 +33642,21 @@
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="26">
-        <v>129</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C153" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G153" s="65">
-        <v>404</v>
-      </c>
-      <c r="H153" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I153" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J153" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L153" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M153" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="N153" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="O153" s="57" t="s">
-        <v>181</v>
-      </c>
+      <c r="A153" s="20"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
@@ -33757,7 +33670,6 @@
       <c r="I154" s="45"/>
       <c r="J154" s="20"/>
       <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
       <c r="M154" s="34"/>
       <c r="N154" s="21"/>
       <c r="O154" s="21"/>
@@ -33774,6 +33686,7 @@
       <c r="I155" s="45"/>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
       <c r="M155" s="34"/>
       <c r="N155" s="21"/>
       <c r="O155" s="21"/>
@@ -34045,7 +33958,6 @@
       <c r="I171" s="45"/>
       <c r="J171" s="20"/>
       <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
       <c r="M171" s="34"/>
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
@@ -34062,6 +33974,7 @@
       <c r="I172" s="45"/>
       <c r="J172" s="20"/>
       <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
       <c r="M172" s="34"/>
       <c r="N172" s="21"/>
       <c r="O172" s="21"/>
@@ -38945,51 +38858,34 @@
       <c r="N459" s="21"/>
       <c r="O459" s="21"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A460" s="20"/>
-      <c r="B460" s="21"/>
-      <c r="C460" s="22"/>
-      <c r="D460" s="20"/>
-      <c r="E460" s="20"/>
-      <c r="F460" s="20"/>
-      <c r="G460" s="45"/>
-      <c r="H460" s="45"/>
-      <c r="I460" s="45"/>
-      <c r="J460" s="20"/>
-      <c r="K460" s="20"/>
-      <c r="L460" s="20"/>
-      <c r="M460" s="34"/>
-      <c r="N460" s="21"/>
-      <c r="O460" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G460"/>
+  <autoFilter ref="G1:G459"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A74:O74"/>
     <mergeCell ref="A60:O60"/>
-    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A134:O134"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A127:O127"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A112:O112"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J129:J134 J97:J108 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J117:J119 J140:J141 J10:J16 J143:J153 J121:J127 J110:J111 J28:J49 J25 J19:J20 J51:J58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J128:J133 J96:J107 J82:J86 J7:J8 J65:J66 J79:J80 J92:J94 J116:J118 J139:J140 J10:J16 J142:J152 J120:J126 J109:J110 J27:J48 J25 J19:J20 J50:J57">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K129:K131 K69:K73 K83:K87 K134 K7:K8 K66:K67 K80:K81 K93:K95 K117:K119 K140:K141 K10:K16 K97:K108 K143:K153 K121:K127 K110:K111 K25:K49 K19:K20 K51:K58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K128:K130 K68:K72 K82:K86 K133 K7:K8 K65:K66 K79:K80 K92:K94 K116:K118 K139:K140 K10:K16 K96:K107 K142:K152 K120:K126 K109:K110 K19:K20 K50:K57 K25:K48">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L69:L73 L10:L14 L83:L87 L111 L134 L51:L55 L147:L148 L143:L145 L7:L8 L66:L67 L80:L81 L93:L95 L117:L119 L140:L141 L16 L39:L48 L97:L102 L121:L123 L125:L127 L28 L30:L37 L25 L19:L20 L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L68:L72 L10:L14 L82:L86 L110 L133 L50:L54 L146:L147 L142:L144 L7:L8 L65:L66 L79:L80 L92:L94 L116:L118 L139:L140 L16 L38:L47 L96:L101 L120:L122 L124:L126 L27 L29:L36 L25 L19:L20 L130">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -39001,8 +38897,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="59" max="16383" man="1"/>
-    <brk id="87" max="9" man="1"/>
+    <brk id="58" max="16383" man="1"/>
+    <brk id="86" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CE2B5-8E09-40FC-B031-AB4978167F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C70B3E-053F-481C-B37A-66380DB37D2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22917,8 +22917,8 @@
   <dimension ref="A1:BN462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -26684,7 +26684,7 @@
     </row>
     <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>100</v>
@@ -39276,21 +39276,21 @@
   <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A137:O137"/>
     <mergeCell ref="A138:O138"/>
     <mergeCell ref="A130:O130"/>
     <mergeCell ref="A111:O111"/>
     <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A75:O75"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/PIT3/validation-rules/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C70B3E-053F-481C-B37A-66380DB37D2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF088F-E271-4EBD-8690-9B61320D5324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="21084" windowHeight="11371" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="288">
   <si>
     <t>Payslip</t>
   </si>
@@ -788,9 +788,6 @@
     <t xml:space="preserve">If Eircode is included it must be a eight character alpha-numeric code.  </t>
   </si>
   <si>
-    <t>Invalid Eircode format.   Eircode must be a eight character alpha-numeric code.</t>
-  </si>
-  <si>
     <t>Eircode rule</t>
   </si>
   <si>
@@ -963,6 +960,12 @@
 •	1-2 where pay frequency is bi-annual;
 •	1 where pay frequency is annual;
 •	1-52 where pay frequency is other.</t>
+  </si>
+  <si>
+    <t>Invalid Eircode format.   Eircode must be a seven or eight character alpha-numeric code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 8 alpha numeric characters to 7 or 8 alpha numeric characters </t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8277225" y="47625"/>
-          <a:ext cx="1819275" cy="923925"/>
+          <a:off x="8420742" y="47625"/>
+          <a:ext cx="1819275" cy="895684"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -22238,23 +22241,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:M66"/>
+  <dimension ref="B8:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="12"/>
+    <col min="2" max="2" width="13.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="12" customWidth="1"/>
     <col min="5" max="5" width="92" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="12" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="12"/>
-    <col min="12" max="13" width="9.140625" style="13"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="6" max="6" width="21.875" style="12" customWidth="1"/>
+    <col min="7" max="11" width="9.125" style="12"/>
+    <col min="12" max="13" width="9.125" style="13"/>
+    <col min="14" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -22271,7 +22274,7 @@
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
     </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>78</v>
       </c>
@@ -22290,7 +22293,7 @@
       <c r="K11" s="13"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B12" s="29">
         <v>0.1</v>
       </c>
@@ -22307,7 +22310,7 @@
       <c r="K12" s="13"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B13" s="70" t="s">
         <v>154</v>
       </c>
@@ -22326,7 +22329,7 @@
       <c r="K13" s="13"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="75.099999999999994" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
         <v>157</v>
@@ -22343,7 +22346,7 @@
       <c r="K14" s="13"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="15">
         <v>100</v>
@@ -22360,7 +22363,7 @@
       <c r="K15" s="13"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="15">
         <v>29</v>
@@ -22377,7 +22380,7 @@
       <c r="K16" s="13"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="15">
         <v>47</v>
@@ -22394,7 +22397,7 @@
       <c r="K17" s="13"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>173</v>
       </c>
@@ -22428,7 +22431,7 @@
       <c r="K19" s="13"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
@@ -22443,7 +22446,7 @@
       <c r="K20" s="13"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="15">
         <v>126</v>
@@ -22460,7 +22463,7 @@
       <c r="K21" s="13"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="15">
         <v>127</v>
@@ -22477,7 +22480,7 @@
       <c r="K22" s="13"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
         <v>201</v>
@@ -22494,7 +22497,7 @@
       <c r="K23" s="13"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="15">
         <v>21</v>
@@ -22505,7 +22508,7 @@
       <c r="K24" s="13"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="15">
         <v>9</v>
@@ -22516,7 +22519,7 @@
       <c r="K25" s="13"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="15">
         <v>129</v>
@@ -22527,7 +22530,7 @@
       <c r="K26" s="13"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="15">
         <v>134</v>
@@ -22538,7 +22541,7 @@
       <c r="K27" s="13"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="15" t="s">
         <v>217</v>
@@ -22549,7 +22552,7 @@
       <c r="K28" s="13"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="15">
         <v>125</v>
@@ -22560,7 +22563,7 @@
       <c r="K29" s="13"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="15">
         <v>140</v>
@@ -22571,7 +22574,7 @@
       <c r="K30" s="13"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="68" t="s">
         <v>226</v>
@@ -22593,7 +22596,7 @@
       <c r="K32" s="13"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
       <c r="C33" s="81" t="s">
         <v>141</v>
@@ -22602,7 +22605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B34" s="79"/>
       <c r="C34" s="79">
         <v>118</v>
@@ -22611,7 +22614,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B35" s="79"/>
       <c r="C35" s="79">
         <v>127</v>
@@ -22620,7 +22623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B36" s="79"/>
       <c r="C36" s="79">
         <v>141</v>
@@ -22647,16 +22650,16 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
       <c r="C39" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="83" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B40" s="79"/>
       <c r="C40" s="79">
         <v>142</v>
@@ -22665,16 +22668,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B41" s="79"/>
       <c r="C41" s="79">
         <v>51</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B42" s="79"/>
       <c r="C42" s="91">
         <v>143144145</v>
@@ -22683,7 +22686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B43" s="79"/>
       <c r="C43" s="79">
         <v>146</v>
@@ -22692,25 +22695,25 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B44" s="79"/>
       <c r="C44" s="79">
         <v>97</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B45" s="79"/>
       <c r="C45" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="80" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B46" s="79"/>
       <c r="C46" s="79">
         <v>147</v>
@@ -22719,16 +22722,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B47" s="79"/>
       <c r="C47" s="79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47" s="80" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B48" s="95"/>
       <c r="C48" s="95">
         <v>10</v>
@@ -22737,7 +22740,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B49" s="79"/>
       <c r="C49" s="79">
         <v>148</v>
@@ -22746,7 +22749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B50" s="79"/>
       <c r="C50" s="79">
         <v>149</v>
@@ -22755,7 +22758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B51" s="79"/>
       <c r="C51" s="79">
         <v>150</v>
@@ -22764,70 +22767,70 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B52" s="79"/>
       <c r="C52" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B53" s="79"/>
       <c r="C53" s="79">
         <v>149</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B54" s="79"/>
       <c r="C54" s="79">
         <v>141</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B55" s="79"/>
       <c r="C55" s="79">
         <v>82</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B57" s="79"/>
       <c r="C57" s="79">
         <v>55</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B58" s="79"/>
       <c r="C58" s="79">
         <v>10</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B59" s="79"/>
       <c r="C59" s="79">
         <v>151</v>
@@ -22836,16 +22839,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B60" s="79"/>
       <c r="C60" s="79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B61" s="79"/>
       <c r="C61" s="79">
         <v>147</v>
@@ -22854,7 +22857,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B62" s="79"/>
       <c r="C62" s="79">
         <v>154</v>
@@ -22863,7 +22866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B63" s="79"/>
       <c r="C63" s="79">
         <v>155</v>
@@ -22872,16 +22875,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="30.1" x14ac:dyDescent="0.25">
       <c r="B64" s="79"/>
       <c r="C64" s="79">
         <v>112</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B65" s="79"/>
       <c r="C65" s="79">
         <v>156</v>
@@ -22897,6 +22900,15 @@
       </c>
       <c r="D66" s="80" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="B67" s="79"/>
+      <c r="C67" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="83" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -22916,29 +22928,29 @@
   </sheetPr>
   <dimension ref="A1:BN462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.3" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.25" style="46" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.75" style="48" customWidth="1"/>
     <col min="14" max="14" width="28" style="11" customWidth="1"/>
     <col min="15" max="15" width="30" style="11" customWidth="1"/>
-    <col min="16" max="66" width="9.140625" style="22"/>
-    <col min="67" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="66" width="9.125" style="22"/>
+    <col min="67" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" ht="48.9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
@@ -23036,7 +23048,7 @@
       <c r="BM1" s="20"/>
       <c r="BN1" s="20"/>
     </row>
-    <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>74</v>
       </c>
@@ -23106,7 +23118,7 @@
       <c r="BM2" s="21"/>
       <c r="BN2" s="21"/>
     </row>
-    <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>148</v>
       </c>
@@ -23176,7 +23188,7 @@
       <c r="BM3" s="21"/>
       <c r="BN3" s="21"/>
     </row>
-    <row r="4" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <v>146</v>
       </c>
@@ -23184,7 +23196,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>12</v>
@@ -23214,7 +23226,7 @@
         <v>1016</v>
       </c>
       <c r="M4" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="93" t="s">
         <v>57</v>
@@ -23274,7 +23286,7 @@
       <c r="BM4" s="21"/>
       <c r="BN4" s="21"/>
     </row>
-    <row r="5" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -23372,7 +23384,7 @@
       <c r="BM5" s="21"/>
       <c r="BN5" s="21"/>
     </row>
-    <row r="6" spans="1:66" s="11" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="11" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -23470,7 +23482,7 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
     </row>
-    <row r="7" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -23478,7 +23490,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="24">
         <v>1</v>
@@ -23517,7 +23529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -23564,7 +23576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>116</v>
       </c>
@@ -23611,7 +23623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -23658,7 +23670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -23705,7 +23717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -23752,7 +23764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -23799,7 +23811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="66.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" ht="66.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -23807,7 +23819,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -23837,7 +23849,7 @@
         <v>2001</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>63</v>
@@ -23846,7 +23858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:66" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="31.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100</v>
       </c>
@@ -23893,7 +23905,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
         <v>12</v>
       </c>
@@ -23940,7 +23952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:66" s="35" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="35" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="58">
         <v>123</v>
       </c>
@@ -23987,7 +23999,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:66" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="58">
         <v>124</v>
       </c>
@@ -24034,7 +24046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -24081,7 +24093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>142</v>
       </c>
@@ -24089,7 +24101,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -24107,12 +24119,12 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100" t="s">
         <v>147</v>
       </c>
@@ -24182,7 +24194,7 @@
       <c r="BM21" s="21"/>
       <c r="BN21" s="21"/>
     </row>
-    <row r="22" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>152</v>
       </c>
@@ -24190,7 +24202,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
@@ -24220,13 +24232,13 @@
         <v>1017</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N22" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -24280,7 +24292,7 @@
       <c r="BM22" s="21"/>
       <c r="BN22" s="21"/>
     </row>
-    <row r="23" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>153</v>
       </c>
@@ -24288,7 +24300,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -24318,13 +24330,13 @@
         <v>1018</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N23" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -24378,7 +24390,7 @@
       <c r="BM23" s="21"/>
       <c r="BN23" s="21"/>
     </row>
-    <row r="24" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>126</v>
       </c>
@@ -24425,7 +24437,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -24472,7 +24484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="11" customFormat="1" ht="48.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92">
         <v>150</v>
       </c>
@@ -24480,7 +24492,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="92" t="s">
         <v>12</v>
@@ -24498,7 +24510,7 @@
         <v>219</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J26" s="92" t="s">
         <v>7</v>
@@ -24510,13 +24522,13 @@
         <v>2021</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N26" s="52" t="s">
         <v>0</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -24570,7 +24582,7 @@
       <c r="BM26" s="21"/>
       <c r="BN26" s="21"/>
     </row>
-    <row r="27" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="11" customFormat="1" ht="48.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <v>149</v>
       </c>
@@ -24578,7 +24590,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="92" t="s">
         <v>12</v>
@@ -24596,7 +24608,7 @@
         <v>219</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J27" s="92" t="s">
         <v>7</v>
@@ -24608,7 +24620,7 @@
         <v>2024</v>
       </c>
       <c r="M27" s="93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N27" s="52" t="s">
         <v>0</v>
@@ -24668,7 +24680,7 @@
       <c r="BM27" s="21"/>
       <c r="BN27" s="21"/>
     </row>
-    <row r="28" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>97</v>
       </c>
@@ -24694,7 +24706,7 @@
         <v>219</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>7</v>
@@ -24715,7 +24727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>143</v>
       </c>
@@ -24723,7 +24735,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>12</v>
@@ -24753,13 +24765,13 @@
         <v>2050</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N29" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O29" s="85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
@@ -24813,7 +24825,7 @@
       <c r="BM29" s="35"/>
       <c r="BN29" s="35"/>
     </row>
-    <row r="30" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>144</v>
       </c>
@@ -24821,7 +24833,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>12</v>
@@ -24851,13 +24863,13 @@
         <v>2051</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N30" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -24911,7 +24923,7 @@
       <c r="BM30" s="35"/>
       <c r="BN30" s="35"/>
     </row>
-    <row r="31" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>20</v>
       </c>
@@ -24958,7 +24970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -25005,7 +25017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>23</v>
       </c>
@@ -25052,7 +25064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>25</v>
       </c>
@@ -25090,7 +25102,7 @@
         <v>2014</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="N34" s="31" t="s">
         <v>0</v>
@@ -25099,7 +25111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="35.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>26</v>
       </c>
@@ -25146,7 +25158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:66" s="73" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="73" customFormat="1" ht="53" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <v>27</v>
       </c>
@@ -25193,7 +25205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>31</v>
       </c>
@@ -25240,7 +25252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>134</v>
       </c>
@@ -25287,7 +25299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>32</v>
       </c>
@@ -25334,7 +25346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="36" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>33</v>
       </c>
@@ -25432,7 +25444,7 @@
       <c r="BM40" s="35"/>
       <c r="BN40" s="35"/>
     </row>
-    <row r="41" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>35</v>
       </c>
@@ -25479,7 +25491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:66" s="36" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="36" customFormat="1" ht="161.35" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>36</v>
       </c>
@@ -25577,7 +25589,7 @@
       <c r="BM42" s="35"/>
       <c r="BN42" s="35"/>
     </row>
-    <row r="43" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>37</v>
       </c>
@@ -25675,7 +25687,7 @@
       <c r="BM43" s="22"/>
       <c r="BN43" s="22"/>
     </row>
-    <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>38</v>
       </c>
@@ -25722,7 +25734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>39</v>
       </c>
@@ -25769,7 +25781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>40</v>
       </c>
@@ -25816,7 +25828,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41</v>
       </c>
@@ -25863,7 +25875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>42</v>
       </c>
@@ -25910,7 +25922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="58">
         <v>43</v>
       </c>
@@ -25957,7 +25969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:66" s="36" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" s="36" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>44</v>
       </c>
@@ -26055,7 +26067,7 @@
       <c r="BM50" s="35"/>
       <c r="BN50" s="35"/>
     </row>
-    <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>45</v>
       </c>
@@ -26102,7 +26114,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>46</v>
       </c>
@@ -26149,7 +26161,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>47</v>
       </c>
@@ -26196,7 +26208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -26243,7 +26255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:66" s="73" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" s="73" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="58">
         <v>49</v>
       </c>
@@ -26290,7 +26302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -26388,7 +26400,7 @@
       <c r="BM56" s="22"/>
       <c r="BN56" s="22"/>
     </row>
-    <row r="57" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -26396,7 +26408,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" s="4">
         <v>8</v>
@@ -26426,7 +26438,7 @@
         <v>2045</v>
       </c>
       <c r="M57" s="90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N57" s="30" t="s">
         <v>0</v>
@@ -26486,7 +26498,7 @@
       <c r="BM57" s="22"/>
       <c r="BN57" s="22"/>
     </row>
-    <row r="58" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>122</v>
       </c>
@@ -26584,7 +26596,7 @@
       <c r="BM58" s="22"/>
       <c r="BN58" s="22"/>
     </row>
-    <row r="59" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>155</v>
       </c>
@@ -26592,7 +26604,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D59" s="4">
         <v>16</v>
@@ -26610,7 +26622,7 @@
         <v>219</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>144</v>
@@ -26622,13 +26634,13 @@
         <v>2052</v>
       </c>
       <c r="M59" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N59" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O59" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -26682,7 +26694,7 @@
       <c r="BM59" s="22"/>
       <c r="BN59" s="22"/>
     </row>
-    <row r="60" spans="1:66" s="7" customFormat="1" ht="220.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="7" customFormat="1" ht="228.25" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>157</v>
       </c>
@@ -26690,7 +26702,7 @@
         <v>100</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D60" s="4">
         <v>55</v>
@@ -26708,7 +26720,7 @@
         <v>219</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J60" s="58" t="s">
         <v>7</v>
@@ -26720,13 +26732,13 @@
         <v>2053</v>
       </c>
       <c r="M60" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N60" s="30" t="s">
         <v>0</v>
       </c>
       <c r="O60" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P60" s="22"/>
       <c r="Q60" s="22"/>
@@ -26780,7 +26792,7 @@
       <c r="BM60" s="22"/>
       <c r="BN60" s="22"/>
     </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101" t="s">
         <v>44</v>
       </c>
@@ -26850,7 +26862,7 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="100" t="s">
         <v>148</v>
       </c>
@@ -26920,7 +26932,7 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="92">
         <v>148</v>
       </c>
@@ -26928,7 +26940,7 @@
         <v>101</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="92" t="s">
         <v>12</v>
@@ -26958,7 +26970,7 @@
         <v>1111</v>
       </c>
       <c r="M63" s="93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N63" s="30" t="s">
         <v>62</v>
@@ -27018,7 +27030,7 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="92">
         <v>146</v>
       </c>
@@ -27026,7 +27038,7 @@
         <v>101</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D64" s="92" t="s">
         <v>12</v>
@@ -27056,7 +27068,7 @@
         <v>1016</v>
       </c>
       <c r="M64" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N64" s="93" t="s">
         <v>57</v>
@@ -27116,7 +27128,7 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>52</v>
       </c>
@@ -27214,7 +27226,7 @@
       <c r="BM65" s="21"/>
       <c r="BN65" s="21"/>
     </row>
-    <row r="66" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>53</v>
       </c>
@@ -27312,7 +27324,7 @@
       <c r="BM66" s="21"/>
       <c r="BN66" s="21"/>
     </row>
-    <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>55</v>
       </c>
@@ -27320,7 +27332,7 @@
         <v>101</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -27410,7 +27422,7 @@
       <c r="BM67" s="22"/>
       <c r="BN67" s="22"/>
     </row>
-    <row r="68" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>56</v>
       </c>
@@ -27508,7 +27520,7 @@
       <c r="BM68" s="22"/>
       <c r="BN68" s="22"/>
     </row>
-    <row r="69" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>117</v>
       </c>
@@ -27555,7 +27567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>57</v>
       </c>
@@ -27653,7 +27665,7 @@
       <c r="BM70" s="22"/>
       <c r="BN70" s="22"/>
     </row>
-    <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>58</v>
       </c>
@@ -27751,7 +27763,7 @@
       <c r="BM71" s="22"/>
       <c r="BN71" s="22"/>
     </row>
-    <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>59</v>
       </c>
@@ -27849,7 +27861,7 @@
       <c r="BM72" s="22"/>
       <c r="BN72" s="22"/>
     </row>
-    <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>60</v>
       </c>
@@ -27947,7 +27959,7 @@
       <c r="BM73" s="22"/>
       <c r="BN73" s="22"/>
     </row>
-    <row r="74" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>61</v>
       </c>
@@ -28045,7 +28057,7 @@
       <c r="BM74" s="22"/>
       <c r="BN74" s="22"/>
     </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
         <v>43</v>
       </c>
@@ -28115,7 +28127,7 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="100" t="s">
         <v>148</v>
       </c>
@@ -28185,7 +28197,7 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="48.9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="92">
         <v>148</v>
       </c>
@@ -28193,7 +28205,7 @@
         <v>102</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>12</v>
@@ -28223,7 +28235,7 @@
         <v>1111</v>
       </c>
       <c r="M77" s="93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N77" s="30" t="s">
         <v>62</v>
@@ -28283,7 +28295,7 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="92">
         <v>146</v>
       </c>
@@ -28291,7 +28303,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>12</v>
@@ -28321,7 +28333,7 @@
         <v>1016</v>
       </c>
       <c r="M78" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N78" s="93" t="s">
         <v>57</v>
@@ -28381,7 +28393,7 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>62</v>
       </c>
@@ -28479,7 +28491,7 @@
       <c r="BM79" s="21"/>
       <c r="BN79" s="21"/>
     </row>
-    <row r="80" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>63</v>
       </c>
@@ -28577,7 +28589,7 @@
       <c r="BM80" s="21"/>
       <c r="BN80" s="21"/>
     </row>
-    <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -28585,7 +28597,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28675,7 +28687,7 @@
       <c r="BM81" s="22"/>
       <c r="BN81" s="22"/>
     </row>
-    <row r="82" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -28773,7 +28785,7 @@
       <c r="BM82" s="22"/>
       <c r="BN82" s="22"/>
     </row>
-    <row r="83" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>118</v>
       </c>
@@ -28820,7 +28832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>67</v>
       </c>
@@ -28918,7 +28930,7 @@
       <c r="BM84" s="22"/>
       <c r="BN84" s="22"/>
     </row>
-    <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>68</v>
       </c>
@@ -29016,7 +29028,7 @@
       <c r="BM85" s="22"/>
       <c r="BN85" s="22"/>
     </row>
-    <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>69</v>
       </c>
@@ -29114,7 +29126,7 @@
       <c r="BM86" s="22"/>
       <c r="BN86" s="22"/>
     </row>
-    <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>70</v>
       </c>
@@ -29212,7 +29224,7 @@
       <c r="BM87" s="22"/>
       <c r="BN87" s="22"/>
     </row>
-    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>71</v>
       </c>
@@ -29310,7 +29322,7 @@
       <c r="BM88" s="22"/>
       <c r="BN88" s="22"/>
     </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="99" t="s">
         <v>131</v>
       </c>
@@ -29380,7 +29392,7 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="100" t="s">
         <v>148</v>
       </c>
@@ -29450,7 +29462,7 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="92">
         <v>146</v>
       </c>
@@ -29458,7 +29470,7 @@
         <v>132</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="92" t="s">
         <v>12</v>
@@ -29488,7 +29500,7 @@
         <v>1016</v>
       </c>
       <c r="M91" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N91" s="93" t="s">
         <v>57</v>
@@ -29548,7 +29560,7 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="50" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>72</v>
       </c>
@@ -29646,7 +29658,7 @@
       <c r="BM92" s="21"/>
       <c r="BN92" s="21"/>
     </row>
-    <row r="93" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" s="50" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>73</v>
       </c>
@@ -29744,7 +29756,7 @@
       <c r="BM93" s="21"/>
       <c r="BN93" s="21"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>75</v>
       </c>
@@ -29752,7 +29764,7 @@
         <v>132</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29842,7 +29854,7 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>76</v>
       </c>
@@ -29940,7 +29952,7 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>77</v>
       </c>
@@ -30038,7 +30050,7 @@
       <c r="BM96" s="22"/>
       <c r="BN96" s="22"/>
     </row>
-    <row r="97" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>119</v>
       </c>
@@ -30085,7 +30097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>78</v>
       </c>
@@ -30183,7 +30195,7 @@
       <c r="BM98" s="22"/>
       <c r="BN98" s="22"/>
     </row>
-    <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>79</v>
       </c>
@@ -30281,7 +30293,7 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>80</v>
       </c>
@@ -30379,7 +30391,7 @@
       <c r="BM100" s="22"/>
       <c r="BN100" s="22"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>81</v>
       </c>
@@ -30477,7 +30489,7 @@
       <c r="BM101" s="22"/>
       <c r="BN101" s="22"/>
     </row>
-    <row r="102" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>82</v>
       </c>
@@ -30575,7 +30587,7 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>83</v>
       </c>
@@ -30673,7 +30685,7 @@
       <c r="BM103" s="22"/>
       <c r="BN103" s="22"/>
     </row>
-    <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>137</v>
       </c>
@@ -30771,7 +30783,7 @@
       <c r="BM104" s="22"/>
       <c r="BN104" s="22"/>
     </row>
-    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="11" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="26">
         <v>138</v>
       </c>
@@ -30869,7 +30881,7 @@
       <c r="BM105" s="21"/>
       <c r="BN105" s="21"/>
     </row>
-    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="26">
         <v>139</v>
       </c>
@@ -30967,7 +30979,7 @@
       <c r="BM106" s="21"/>
       <c r="BN106" s="21"/>
     </row>
-    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="26">
         <v>140</v>
       </c>
@@ -31065,7 +31077,7 @@
       <c r="BM107" s="21"/>
       <c r="BN107" s="21"/>
     </row>
-    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="26">
         <v>141</v>
       </c>
@@ -31163,7 +31175,7 @@
       <c r="BM108" s="21"/>
       <c r="BN108" s="21"/>
     </row>
-    <row r="109" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" s="50" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="58">
         <v>84</v>
       </c>
@@ -31261,7 +31273,7 @@
       <c r="BM109" s="21"/>
       <c r="BN109" s="21"/>
     </row>
-    <row r="110" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" s="50" customFormat="1" ht="28.55" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="58">
         <v>156</v>
       </c>
@@ -31269,7 +31281,7 @@
         <v>132</v>
       </c>
       <c r="C110" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D110" s="58" t="s">
         <v>12</v>
@@ -31299,13 +31311,13 @@
         <v>3014</v>
       </c>
       <c r="M110" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N110" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O110" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
@@ -31429,7 +31441,7 @@
       <c r="BM111" s="21"/>
       <c r="BN111" s="21"/>
     </row>
-    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" s="36" customFormat="1" ht="49.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>145</v>
       </c>
@@ -31437,7 +31449,7 @@
         <v>132</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D112" s="38" t="s">
         <v>12</v>
@@ -31467,13 +31479,13 @@
         <v>3008</v>
       </c>
       <c r="M112" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N112" s="37" t="s">
         <v>0</v>
       </c>
       <c r="O112" s="87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P112" s="35"/>
       <c r="Q112" s="35"/>
@@ -31527,7 +31539,7 @@
       <c r="BM112" s="35"/>
       <c r="BN112" s="35"/>
     </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>85</v>
       </c>
@@ -31625,7 +31637,7 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="19.05" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="99" t="s">
         <v>134</v>
       </c>
@@ -31695,7 +31707,7 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="100" t="s">
         <v>148</v>
       </c>
@@ -31765,7 +31777,7 @@
       <c r="BM115" s="22"/>
       <c r="BN115" s="22"/>
     </row>
-    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="92">
         <v>146</v>
       </c>
@@ -31773,7 +31785,7 @@
         <v>135</v>
       </c>
       <c r="C116" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D116" s="92" t="s">
         <v>12</v>
@@ -31803,7 +31815,7 @@
         <v>1016</v>
       </c>
       <c r="M116" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N116" s="93" t="s">
         <v>57</v>
@@ -31863,7 +31875,7 @@
       <c r="BM116" s="21"/>
       <c r="BN116" s="21"/>
     </row>
-    <row r="117" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>86</v>
       </c>
@@ -31910,7 +31922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>87</v>
       </c>
@@ -32008,7 +32020,7 @@
       <c r="BM118" s="22"/>
       <c r="BN118" s="22"/>
     </row>
-    <row r="119" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>89</v>
       </c>
@@ -32016,7 +32028,7 @@
         <v>135</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -32106,7 +32118,7 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="48.9" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>90</v>
       </c>
@@ -32204,7 +32216,7 @@
       <c r="BM120" s="22"/>
       <c r="BN120" s="22"/>
     </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>91</v>
       </c>
@@ -32302,7 +32314,7 @@
       <c r="BM121" s="22"/>
       <c r="BN121" s="22"/>
     </row>
-    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" s="7" customFormat="1" ht="33.799999999999997" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -32400,7 +32412,7 @@
       <c r="BM122" s="22"/>
       <c r="BN122" s="22"/>
     </row>
-    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" s="11" customFormat="1" ht="15.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>92</v>
       </c>
@@ -32498,7 +32510,7 @@
       <c r="BM123" s="21"/>
       <c r="BN123" s="21"/>
     </row>
-    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>93</v>
       </c>
@@ -32545,7 +32557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>94</v>
       </c>
@@ -32592,7 +32604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A126" s="26">
         <v>141</v>
       </c>
@@ -32690,7 +32702,7 @@
       <c r="BM126" s="21"/>
       <c r="BN126" s="21"/>
     </row>
-    <row r="127" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>95</v>
       </c>
@@ -32737,7 +32749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" s="7" customFormat="1" ht="32.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>96</v>
       </c>
@@ -32835,7 +32847,7 @@
       <c r="BM128" s="22"/>
       <c r="BN128" s="22"/>
     </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
         <v>142</v>
       </c>
@@ -32843,7 +32855,7 @@
         <v>135</v>
       </c>
       <c r="C129" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
@@ -32861,12 +32873,12 @@
       <c r="K129" s="26"/>
       <c r="L129" s="26"/>
       <c r="M129" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N129" s="33"/>
       <c r="O129" s="33"/>
     </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A130" s="100" t="s">
         <v>147</v>
       </c>
@@ -32885,7 +32897,7 @@
       <c r="N130" s="100"/>
       <c r="O130" s="100"/>
     </row>
-    <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>154</v>
       </c>
@@ -32893,7 +32905,7 @@
         <v>135</v>
       </c>
       <c r="C131" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>12</v>
@@ -32923,16 +32935,16 @@
         <v>4006</v>
       </c>
       <c r="M131" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O131" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>151</v>
       </c>
@@ -32940,7 +32952,7 @@
         <v>135</v>
       </c>
       <c r="C132" s="96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>12</v>
@@ -32970,16 +32982,16 @@
         <v>4005</v>
       </c>
       <c r="M132" s="96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N132" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O132" s="96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>97</v>
       </c>
@@ -33026,7 +33038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>98</v>
       </c>
@@ -33073,7 +33085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>115</v>
       </c>
@@ -33120,7 +33132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>99</v>
       </c>
@@ -33167,7 +33179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" ht="19.05" x14ac:dyDescent="0.3">
       <c r="A137" s="99" t="s">
         <v>175</v>
       </c>
@@ -33186,7 +33198,7 @@
       <c r="N137" s="99"/>
       <c r="O137" s="99"/>
     </row>
-    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A138" s="100" t="s">
         <v>148</v>
       </c>
@@ -33205,7 +33217,7 @@
       <c r="N138" s="100"/>
       <c r="O138" s="100"/>
     </row>
-    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" s="11" customFormat="1" ht="40.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="92">
         <v>146</v>
       </c>
@@ -33213,7 +33225,7 @@
         <v>176</v>
       </c>
       <c r="C139" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D139" s="92" t="s">
         <v>12</v>
@@ -33243,7 +33255,7 @@
         <v>1016</v>
       </c>
       <c r="M139" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N139" s="93" t="s">
         <v>57</v>
@@ -33303,7 +33315,7 @@
       <c r="BM139" s="21"/>
       <c r="BN139" s="21"/>
     </row>
-    <row r="140" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>102</v>
       </c>
@@ -33350,7 +33362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>103</v>
       </c>
@@ -33397,7 +33409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>105</v>
       </c>
@@ -33405,7 +33417,7 @@
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D142" s="24">
         <v>201</v>
@@ -33444,7 +33456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>106</v>
       </c>
@@ -33491,7 +33503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>121</v>
       </c>
@@ -33538,7 +33550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>107</v>
       </c>
@@ -33585,7 +33597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>108</v>
       </c>
@@ -33632,7 +33644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>109</v>
       </c>
@@ -33679,7 +33691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>110</v>
       </c>
@@ -33726,7 +33738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>111</v>
       </c>
@@ -33773,7 +33785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="32.6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>112</v>
       </c>
@@ -33820,7 +33832,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="47.55" x14ac:dyDescent="0.3">
       <c r="A151" s="26">
         <v>132</v>
       </c>
@@ -33867,7 +33879,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="47.55" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>131</v>
       </c>
@@ -33914,7 +33926,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="63.2" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>130</v>
       </c>
@@ -33961,7 +33973,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="31.95" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>128</v>
       </c>
@@ -34008,7 +34020,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="26">
         <v>129</v>
       </c>
@@ -34055,7 +34067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="20"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -34072,7 +34084,7 @@
       <c r="N156" s="21"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -34088,7 +34100,7 @@
       <c r="N157" s="21"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -34105,7 +34117,7 @@
       <c r="N158" s="21"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -34122,7 +34134,7 @@
       <c r="N159" s="21"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -34139,7 +34151,7 @@
       <c r="N160" s="21"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -34156,7 +34168,7 @@
       <c r="N161" s="21"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -34173,7 +34185,7 @@
       <c r="N162" s="21"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -34190,7 +34202,7 @@
       <c r="N163" s="21"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -34207,7 +34219,7 @@
       <c r="N164" s="21"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -34224,7 +34236,7 @@
       <c r="N165" s="21"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -34241,7 +34253,7 @@
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -34258,7 +34270,7 @@
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -34275,7 +34287,7 @@
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -34292,7 +34304,7 @@
       <c r="N169" s="21"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -34309,7 +34321,7 @@
       <c r="N170" s="21"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -34326,7 +34338,7 @@
       <c r="N171" s="21"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -34343,7 +34355,7 @@
       <c r="N172" s="21"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -34360,7 +34372,7 @@
       <c r="N173" s="21"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -34376,7 +34388,7 @@
       <c r="N174" s="21"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -34393,7 +34405,7 @@
       <c r="N175" s="21"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -34410,7 +34422,7 @@
       <c r="N176" s="21"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -34427,7 +34439,7 @@
       <c r="N177" s="21"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -34444,7 +34456,7 @@
       <c r="N178" s="21"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -34461,7 +34473,7 @@
       <c r="N179" s="21"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="22"/>
@@ -34478,7 +34490,7 @@
       <c r="N180" s="21"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="22"/>
@@ -34495,7 +34507,7 @@
       <c r="N181" s="21"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="22"/>
@@ -34512,7 +34524,7 @@
       <c r="N182" s="21"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="B183" s="21"/>
       <c r="C183" s="22"/>
@@ -34529,7 +34541,7 @@
       <c r="N183" s="21"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="22"/>
@@ -34546,7 +34558,7 @@
       <c r="N184" s="21"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="21"/>
       <c r="C185" s="22"/>
@@ -34563,7 +34575,7 @@
       <c r="N185" s="21"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="22"/>
@@ -34580,7 +34592,7 @@
       <c r="N186" s="21"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="22"/>
@@ -34597,7 +34609,7 @@
       <c r="N187" s="21"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="22"/>
@@ -34614,7 +34626,7 @@
       <c r="N188" s="21"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="21"/>
       <c r="C189" s="22"/>
@@ -34631,7 +34643,7 @@
       <c r="N189" s="21"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="21"/>
       <c r="C190" s="22"/>
@@ -34648,7 +34660,7 @@
       <c r="N190" s="21"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="B191" s="21"/>
       <c r="C191" s="22"/>
@@ -34665,7 +34677,7 @@
       <c r="N191" s="21"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="21"/>
       <c r="C192" s="22"/>
@@ -34682,7 +34694,7 @@
       <c r="N192" s="21"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="21"/>
       <c r="C193" s="22"/>
@@ -34699,7 +34711,7 @@
       <c r="N193" s="21"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="21"/>
       <c r="C194" s="22"/>
@@ -34716,7 +34728,7 @@
       <c r="N194" s="21"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="21"/>
       <c r="C195" s="22"/>
@@ -34733,7 +34745,7 @@
       <c r="N195" s="21"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="21"/>
       <c r="C196" s="22"/>
@@ -34750,7 +34762,7 @@
       <c r="N196" s="21"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="B197" s="21"/>
       <c r="C197" s="22"/>
@@ -34767,7 +34779,7 @@
       <c r="N197" s="21"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="21"/>
       <c r="C198" s="22"/>
@@ -34784,7 +34796,7 @@
       <c r="N198" s="21"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="21"/>
       <c r="C199" s="22"/>
@@ -34801,7 +34813,7 @@
       <c r="N199" s="21"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="21"/>
       <c r="C200" s="22"/>
@@ -34818,7 +34830,7 @@
       <c r="N200" s="21"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="21"/>
       <c r="C201" s="22"/>
@@ -34835,7 +34847,7 @@
       <c r="N201" s="21"/>
       <c r="O201" s="21"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="21"/>
       <c r="C202" s="22"/>
@@ -34852,7 +34864,7 @@
       <c r="N202" s="21"/>
       <c r="O202" s="21"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="21"/>
       <c r="C203" s="22"/>
@@ -34869,7 +34881,7 @@
       <c r="N203" s="21"/>
       <c r="O203" s="21"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="21"/>
       <c r="C204" s="22"/>
@@ -34886,7 +34898,7 @@
       <c r="N204" s="21"/>
       <c r="O204" s="21"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="21"/>
       <c r="C205" s="22"/>
@@ -34903,7 +34915,7 @@
       <c r="N205" s="21"/>
       <c r="O205" s="21"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="21"/>
       <c r="C206" s="22"/>
@@ -34920,7 +34932,7 @@
       <c r="N206" s="21"/>
       <c r="O206" s="21"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="B207" s="21"/>
       <c r="C207" s="22"/>
@@ -34937,7 +34949,7 @@
       <c r="N207" s="21"/>
       <c r="O207" s="21"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="21"/>
       <c r="C208" s="22"/>
@@ -34954,7 +34966,7 @@
       <c r="N208" s="21"/>
       <c r="O208" s="21"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="21"/>
       <c r="C209" s="22"/>
@@ -34971,7 +34983,7 @@
       <c r="N209" s="21"/>
       <c r="O209" s="21"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="21"/>
       <c r="C210" s="22"/>
@@ -34988,7 +35000,7 @@
       <c r="N210" s="21"/>
       <c r="O210" s="21"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="21"/>
       <c r="C211" s="22"/>
@@ -35005,7 +35017,7 @@
       <c r="N211" s="21"/>
       <c r="O211" s="21"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="21"/>
       <c r="C212" s="22"/>
@@ -35022,7 +35034,7 @@
       <c r="N212" s="21"/>
       <c r="O212" s="21"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="21"/>
       <c r="C213" s="22"/>
@@ -35039,7 +35051,7 @@
       <c r="N213" s="21"/>
       <c r="O213" s="21"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="21"/>
       <c r="C214" s="22"/>
@@ -35056,7 +35068,7 @@
       <c r="N214" s="21"/>
       <c r="O214" s="21"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="21"/>
       <c r="C215" s="22"/>
@@ -35073,7 +35085,7 @@
       <c r="N215" s="21"/>
       <c r="O215" s="21"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="21"/>
       <c r="C216" s="22"/>
@@ -35090,7 +35102,7 @@
       <c r="N216" s="21"/>
       <c r="O216" s="21"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="B217" s="21"/>
       <c r="C217" s="22"/>
@@ -35107,7 +35119,7 @@
       <c r="N217" s="21"/>
       <c r="O217" s="21"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="21"/>
       <c r="C218" s="22"/>
@@ -35124,7 +35136,7 @@
       <c r="N218" s="21"/>
       <c r="O218" s="21"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="21"/>
       <c r="C219" s="22"/>
@@ -35141,7 +35153,7 @@
       <c r="N219" s="21"/>
       <c r="O219" s="21"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="C220" s="22"/>
@@ -35158,7 +35170,7 @@
       <c r="N220" s="21"/>
       <c r="O220" s="21"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="21"/>
       <c r="C221" s="22"/>
@@ -35175,7 +35187,7 @@
       <c r="N221" s="21"/>
       <c r="O221" s="21"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
       <c r="C222" s="22"/>
@@ -35192,7 +35204,7 @@
       <c r="N222" s="21"/>
       <c r="O222" s="21"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
       <c r="C223" s="22"/>
@@ -35209,7 +35221,7 @@
       <c r="N223" s="21"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
       <c r="C224" s="22"/>
@@ -35226,7 +35238,7 @@
       <c r="N224" s="21"/>
       <c r="O224" s="21"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
       <c r="C225" s="22"/>
@@ -35243,7 +35255,7 @@
       <c r="N225" s="21"/>
       <c r="O225" s="21"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
       <c r="C226" s="22"/>
@@ -35260,7 +35272,7 @@
       <c r="N226" s="21"/>
       <c r="O226" s="21"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
       <c r="C227" s="22"/>
@@ -35277,7 +35289,7 @@
       <c r="N227" s="21"/>
       <c r="O227" s="21"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
       <c r="C228" s="22"/>
@@ -35294,7 +35306,7 @@
       <c r="N228" s="21"/>
       <c r="O228" s="21"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
       <c r="C229" s="22"/>
@@ -35311,7 +35323,7 @@
       <c r="N229" s="21"/>
       <c r="O229" s="21"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
       <c r="C230" s="22"/>
@@ -35328,7 +35340,7 @@
       <c r="N230" s="21"/>
       <c r="O230" s="21"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="21"/>
       <c r="C231" s="22"/>
@@ -35345,7 +35357,7 @@
       <c r="N231" s="21"/>
       <c r="O231" s="21"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
       <c r="C232" s="22"/>
@@ -35362,7 +35374,7 @@
       <c r="N232" s="21"/>
       <c r="O232" s="21"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
       <c r="C233" s="22"/>
@@ -35379,7 +35391,7 @@
       <c r="N233" s="21"/>
       <c r="O233" s="21"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
       <c r="C234" s="22"/>
@@ -35396,7 +35408,7 @@
       <c r="N234" s="21"/>
       <c r="O234" s="21"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
       <c r="C235" s="22"/>
@@ -35413,7 +35425,7 @@
       <c r="N235" s="21"/>
       <c r="O235" s="21"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
       <c r="C236" s="22"/>
@@ -35430,7 +35442,7 @@
       <c r="N236" s="21"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="22"/>
@@ -35447,7 +35459,7 @@
       <c r="N237" s="21"/>
       <c r="O237" s="21"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22"/>
@@ -35464,7 +35476,7 @@
       <c r="N238" s="21"/>
       <c r="O238" s="21"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
@@ -35481,7 +35493,7 @@
       <c r="N239" s="21"/>
       <c r="O239" s="21"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="22"/>
@@ -35498,7 +35510,7 @@
       <c r="N240" s="21"/>
       <c r="O240" s="21"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="22"/>
@@ -35515,7 +35527,7 @@
       <c r="N241" s="21"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="22"/>
@@ -35532,7 +35544,7 @@
       <c r="N242" s="21"/>
       <c r="O242" s="21"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="22"/>
@@ -35549,7 +35561,7 @@
       <c r="N243" s="21"/>
       <c r="O243" s="21"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="22"/>
@@ -35566,7 +35578,7 @@
       <c r="N244" s="21"/>
       <c r="O244" s="21"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="22"/>
@@ -35583,7 +35595,7 @@
       <c r="N245" s="21"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="22"/>
@@ -35600,7 +35612,7 @@
       <c r="N246" s="21"/>
       <c r="O246" s="21"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="22"/>
@@ -35617,7 +35629,7 @@
       <c r="N247" s="21"/>
       <c r="O247" s="21"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="21"/>
       <c r="C248" s="22"/>
@@ -35634,7 +35646,7 @@
       <c r="N248" s="21"/>
       <c r="O248" s="21"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="21"/>
       <c r="C249" s="22"/>
@@ -35651,7 +35663,7 @@
       <c r="N249" s="21"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="21"/>
       <c r="C250" s="22"/>
@@ -35668,7 +35680,7 @@
       <c r="N250" s="21"/>
       <c r="O250" s="21"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="B251" s="21"/>
       <c r="C251" s="22"/>
@@ -35685,7 +35697,7 @@
       <c r="N251" s="21"/>
       <c r="O251" s="21"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
       <c r="C252" s="22"/>
@@ -35702,7 +35714,7 @@
       <c r="N252" s="21"/>
       <c r="O252" s="21"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
       <c r="C253" s="22"/>
@@ -35719,7 +35731,7 @@
       <c r="N253" s="21"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
       <c r="C254" s="22"/>
@@ -35736,7 +35748,7 @@
       <c r="N254" s="21"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
       <c r="C255" s="22"/>
@@ -35753,7 +35765,7 @@
       <c r="N255" s="21"/>
       <c r="O255" s="21"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="21"/>
       <c r="C256" s="22"/>
@@ -35770,7 +35782,7 @@
       <c r="N256" s="21"/>
       <c r="O256" s="21"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
       <c r="C257" s="22"/>
@@ -35787,7 +35799,7 @@
       <c r="N257" s="21"/>
       <c r="O257" s="21"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
       <c r="C258" s="22"/>
@@ -35804,7 +35816,7 @@
       <c r="N258" s="21"/>
       <c r="O258" s="21"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
       <c r="C259" s="22"/>
@@ -35821,7 +35833,7 @@
       <c r="N259" s="21"/>
       <c r="O259" s="21"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="20"/>
       <c r="B260" s="21"/>
       <c r="C260" s="22"/>
@@ -35838,7 +35850,7 @@
       <c r="N260" s="21"/>
       <c r="O260" s="21"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="21"/>
       <c r="C261" s="22"/>
@@ -35855,7 +35867,7 @@
       <c r="N261" s="21"/>
       <c r="O261" s="21"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="21"/>
       <c r="C262" s="22"/>
@@ -35872,7 +35884,7 @@
       <c r="N262" s="21"/>
       <c r="O262" s="21"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="21"/>
       <c r="C263" s="22"/>
@@ -35889,7 +35901,7 @@
       <c r="N263" s="21"/>
       <c r="O263" s="21"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="21"/>
       <c r="C264" s="22"/>
@@ -35906,7 +35918,7 @@
       <c r="N264" s="21"/>
       <c r="O264" s="21"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="21"/>
       <c r="C265" s="22"/>
@@ -35923,7 +35935,7 @@
       <c r="N265" s="21"/>
       <c r="O265" s="21"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="21"/>
       <c r="C266" s="22"/>
@@ -35940,7 +35952,7 @@
       <c r="N266" s="21"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="21"/>
       <c r="C267" s="22"/>
@@ -35957,7 +35969,7 @@
       <c r="N267" s="21"/>
       <c r="O267" s="21"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="21"/>
       <c r="C268" s="22"/>
@@ -35974,7 +35986,7 @@
       <c r="N268" s="21"/>
       <c r="O268" s="21"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="21"/>
       <c r="C269" s="22"/>
@@ -35991,7 +36003,7 @@
       <c r="N269" s="21"/>
       <c r="O269" s="21"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="21"/>
       <c r="C270" s="22"/>
@@ -36008,7 +36020,7 @@
       <c r="N270" s="21"/>
       <c r="O270" s="21"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="21"/>
       <c r="C271" s="22"/>
@@ -36025,7 +36037,7 @@
       <c r="N271" s="21"/>
       <c r="O271" s="21"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="21"/>
       <c r="C272" s="22"/>
@@ -36042,7 +36054,7 @@
       <c r="N272" s="21"/>
       <c r="O272" s="21"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="21"/>
       <c r="C273" s="22"/>
@@ -36059,7 +36071,7 @@
       <c r="N273" s="21"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="20"/>
       <c r="B274" s="21"/>
       <c r="C274" s="22"/>
@@ -36076,7 +36088,7 @@
       <c r="N274" s="21"/>
       <c r="O274" s="21"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="21"/>
       <c r="C275" s="22"/>
@@ -36093,7 +36105,7 @@
       <c r="N275" s="21"/>
       <c r="O275" s="21"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="21"/>
       <c r="C276" s="22"/>
@@ -36110,7 +36122,7 @@
       <c r="N276" s="21"/>
       <c r="O276" s="21"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="21"/>
       <c r="C277" s="22"/>
@@ -36127,7 +36139,7 @@
       <c r="N277" s="21"/>
       <c r="O277" s="21"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="21"/>
       <c r="C278" s="22"/>
@@ -36144,7 +36156,7 @@
       <c r="N278" s="21"/>
       <c r="O278" s="21"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="21"/>
       <c r="C279" s="22"/>
@@ -36161,7 +36173,7 @@
       <c r="N279" s="21"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="21"/>
       <c r="C280" s="22"/>
@@ -36178,7 +36190,7 @@
       <c r="N280" s="21"/>
       <c r="O280" s="21"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="21"/>
       <c r="C281" s="22"/>
@@ -36195,7 +36207,7 @@
       <c r="N281" s="21"/>
       <c r="O281" s="21"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="21"/>
       <c r="C282" s="22"/>
@@ -36212,7 +36224,7 @@
       <c r="N282" s="21"/>
       <c r="O282" s="21"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="21"/>
       <c r="C283" s="22"/>
@@ -36229,7 +36241,7 @@
       <c r="N283" s="21"/>
       <c r="O283" s="21"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="21"/>
       <c r="C284" s="22"/>
@@ -36246,7 +36258,7 @@
       <c r="N284" s="21"/>
       <c r="O284" s="21"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="21"/>
       <c r="C285" s="22"/>
@@ -36263,7 +36275,7 @@
       <c r="N285" s="21"/>
       <c r="O285" s="21"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="21"/>
       <c r="C286" s="22"/>
@@ -36280,7 +36292,7 @@
       <c r="N286" s="21"/>
       <c r="O286" s="21"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="21"/>
       <c r="C287" s="22"/>
@@ -36297,7 +36309,7 @@
       <c r="N287" s="21"/>
       <c r="O287" s="21"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="21"/>
       <c r="C288" s="22"/>
@@ -36314,7 +36326,7 @@
       <c r="N288" s="21"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="21"/>
       <c r="C289" s="22"/>
@@ -36331,7 +36343,7 @@
       <c r="N289" s="21"/>
       <c r="O289" s="21"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="21"/>
       <c r="C290" s="22"/>
@@ -36348,7 +36360,7 @@
       <c r="N290" s="21"/>
       <c r="O290" s="21"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="21"/>
       <c r="C291" s="22"/>
@@ -36365,7 +36377,7 @@
       <c r="N291" s="21"/>
       <c r="O291" s="21"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="21"/>
       <c r="C292" s="22"/>
@@ -36382,7 +36394,7 @@
       <c r="N292" s="21"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="21"/>
       <c r="C293" s="22"/>
@@ -36399,7 +36411,7 @@
       <c r="N293" s="21"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="21"/>
       <c r="C294" s="22"/>
@@ -36416,7 +36428,7 @@
       <c r="N294" s="21"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="21"/>
       <c r="C295" s="22"/>
@@ -36433,7 +36445,7 @@
       <c r="N295" s="21"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="20"/>
       <c r="B296" s="21"/>
       <c r="C296" s="22"/>
@@ -36450,7 +36462,7 @@
       <c r="N296" s="21"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="21"/>
       <c r="C297" s="22"/>
@@ -36467,7 +36479,7 @@
       <c r="N297" s="21"/>
       <c r="O297" s="21"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="20"/>
       <c r="B298" s="21"/>
       <c r="C298" s="22"/>
@@ -36484,7 +36496,7 @@
       <c r="N298" s="21"/>
       <c r="O298" s="21"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="21"/>
       <c r="C299" s="22"/>
@@ -36501,7 +36513,7 @@
       <c r="N299" s="21"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="21"/>
       <c r="C300" s="22"/>
@@ -36518,7 +36530,7 @@
       <c r="N300" s="21"/>
       <c r="O300" s="21"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="21"/>
       <c r="C301" s="22"/>
@@ -36535,7 +36547,7 @@
       <c r="N301" s="21"/>
       <c r="O301" s="21"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="21"/>
       <c r="C302" s="22"/>
@@ -36552,7 +36564,7 @@
       <c r="N302" s="21"/>
       <c r="O302" s="21"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="21"/>
       <c r="C303" s="22"/>
@@ -36569,7 +36581,7 @@
       <c r="N303" s="21"/>
       <c r="O303" s="21"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="21"/>
       <c r="C304" s="22"/>
@@ -36586,7 +36598,7 @@
       <c r="N304" s="21"/>
       <c r="O304" s="21"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="21"/>
       <c r="C305" s="22"/>
@@ -36603,7 +36615,7 @@
       <c r="N305" s="21"/>
       <c r="O305" s="21"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="21"/>
       <c r="C306" s="22"/>
@@ -36620,7 +36632,7 @@
       <c r="N306" s="21"/>
       <c r="O306" s="21"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="21"/>
       <c r="C307" s="22"/>
@@ -36637,7 +36649,7 @@
       <c r="N307" s="21"/>
       <c r="O307" s="21"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="20"/>
       <c r="B308" s="21"/>
       <c r="C308" s="22"/>
@@ -36654,7 +36666,7 @@
       <c r="N308" s="21"/>
       <c r="O308" s="21"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="21"/>
       <c r="C309" s="22"/>
@@ -36671,7 +36683,7 @@
       <c r="N309" s="21"/>
       <c r="O309" s="21"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="21"/>
       <c r="C310" s="22"/>
@@ -36688,7 +36700,7 @@
       <c r="N310" s="21"/>
       <c r="O310" s="21"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="21"/>
       <c r="C311" s="22"/>
@@ -36705,7 +36717,7 @@
       <c r="N311" s="21"/>
       <c r="O311" s="21"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="21"/>
       <c r="C312" s="22"/>
@@ -36722,7 +36734,7 @@
       <c r="N312" s="21"/>
       <c r="O312" s="21"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="20"/>
       <c r="B313" s="21"/>
       <c r="C313" s="22"/>
@@ -36739,7 +36751,7 @@
       <c r="N313" s="21"/>
       <c r="O313" s="21"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="21"/>
       <c r="C314" s="22"/>
@@ -36756,7 +36768,7 @@
       <c r="N314" s="21"/>
       <c r="O314" s="21"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="21"/>
       <c r="C315" s="22"/>
@@ -36773,7 +36785,7 @@
       <c r="N315" s="21"/>
       <c r="O315" s="21"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="21"/>
       <c r="C316" s="22"/>
@@ -36790,7 +36802,7 @@
       <c r="N316" s="21"/>
       <c r="O316" s="21"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="20"/>
       <c r="B317" s="21"/>
       <c r="C317" s="22"/>
@@ -36807,7 +36819,7 @@
       <c r="N317" s="21"/>
       <c r="O317" s="21"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="21"/>
       <c r="C318" s="22"/>
@@ -36824,7 +36836,7 @@
       <c r="N318" s="21"/>
       <c r="O318" s="21"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="21"/>
       <c r="C319" s="22"/>
@@ -36841,7 +36853,7 @@
       <c r="N319" s="21"/>
       <c r="O319" s="21"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="21"/>
       <c r="C320" s="22"/>
@@ -36858,7 +36870,7 @@
       <c r="N320" s="21"/>
       <c r="O320" s="21"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="21"/>
       <c r="C321" s="22"/>
@@ -36875,7 +36887,7 @@
       <c r="N321" s="21"/>
       <c r="O321" s="21"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="21"/>
       <c r="C322" s="22"/>
@@ -36892,7 +36904,7 @@
       <c r="N322" s="21"/>
       <c r="O322" s="21"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="21"/>
       <c r="C323" s="22"/>
@@ -36909,7 +36921,7 @@
       <c r="N323" s="21"/>
       <c r="O323" s="21"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="20"/>
       <c r="B324" s="21"/>
       <c r="C324" s="22"/>
@@ -36926,7 +36938,7 @@
       <c r="N324" s="21"/>
       <c r="O324" s="21"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="20"/>
       <c r="B325" s="21"/>
       <c r="C325" s="22"/>
@@ -36943,7 +36955,7 @@
       <c r="N325" s="21"/>
       <c r="O325" s="21"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="21"/>
       <c r="C326" s="22"/>
@@ -36960,7 +36972,7 @@
       <c r="N326" s="21"/>
       <c r="O326" s="21"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="21"/>
       <c r="C327" s="22"/>
@@ -36977,7 +36989,7 @@
       <c r="N327" s="21"/>
       <c r="O327" s="21"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="B328" s="21"/>
       <c r="C328" s="22"/>
@@ -36994,7 +37006,7 @@
       <c r="N328" s="21"/>
       <c r="O328" s="21"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="20"/>
       <c r="B329" s="21"/>
       <c r="C329" s="22"/>
@@ -37011,7 +37023,7 @@
       <c r="N329" s="21"/>
       <c r="O329" s="21"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="20"/>
       <c r="B330" s="21"/>
       <c r="C330" s="22"/>
@@ -37028,7 +37040,7 @@
       <c r="N330" s="21"/>
       <c r="O330" s="21"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="20"/>
       <c r="B331" s="21"/>
       <c r="C331" s="22"/>
@@ -37045,7 +37057,7 @@
       <c r="N331" s="21"/>
       <c r="O331" s="21"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="20"/>
       <c r="B332" s="21"/>
       <c r="C332" s="22"/>
@@ -37062,7 +37074,7 @@
       <c r="N332" s="21"/>
       <c r="O332" s="21"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="20"/>
       <c r="B333" s="21"/>
       <c r="C333" s="22"/>
@@ -37079,7 +37091,7 @@
       <c r="N333" s="21"/>
       <c r="O333" s="21"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="20"/>
       <c r="B334" s="21"/>
       <c r="C334" s="22"/>
@@ -37096,7 +37108,7 @@
       <c r="N334" s="21"/>
       <c r="O334" s="21"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="B335" s="21"/>
       <c r="C335" s="22"/>
@@ -37113,7 +37125,7 @@
       <c r="N335" s="21"/>
       <c r="O335" s="21"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="B336" s="21"/>
       <c r="C336" s="22"/>
@@ -37130,7 +37142,7 @@
       <c r="N336" s="21"/>
       <c r="O336" s="21"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="20"/>
       <c r="B337" s="21"/>
       <c r="C337" s="22"/>
@@ -37147,7 +37159,7 @@
       <c r="N337" s="21"/>
       <c r="O337" s="21"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="20"/>
       <c r="B338" s="21"/>
       <c r="C338" s="22"/>
@@ -37164,7 +37176,7 @@
       <c r="N338" s="21"/>
       <c r="O338" s="21"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="22"/>
@@ -37181,7 +37193,7 @@
       <c r="N339" s="21"/>
       <c r="O339" s="21"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="20"/>
       <c r="B340" s="21"/>
       <c r="C340" s="22"/>
@@ -37198,7 +37210,7 @@
       <c r="N340" s="21"/>
       <c r="O340" s="21"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="20"/>
       <c r="B341" s="21"/>
       <c r="C341" s="22"/>
@@ -37215,7 +37227,7 @@
       <c r="N341" s="21"/>
       <c r="O341" s="21"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="20"/>
       <c r="B342" s="21"/>
       <c r="C342" s="22"/>
@@ -37232,7 +37244,7 @@
       <c r="N342" s="21"/>
       <c r="O342" s="21"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="B343" s="21"/>
       <c r="C343" s="22"/>
@@ -37249,7 +37261,7 @@
       <c r="N343" s="21"/>
       <c r="O343" s="21"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="B344" s="21"/>
       <c r="C344" s="22"/>
@@ -37266,7 +37278,7 @@
       <c r="N344" s="21"/>
       <c r="O344" s="21"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="21"/>
       <c r="C345" s="22"/>
@@ -37283,7 +37295,7 @@
       <c r="N345" s="21"/>
       <c r="O345" s="21"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="20"/>
       <c r="B346" s="21"/>
       <c r="C346" s="22"/>
@@ -37300,7 +37312,7 @@
       <c r="N346" s="21"/>
       <c r="O346" s="21"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="20"/>
       <c r="B347" s="21"/>
       <c r="C347" s="22"/>
@@ -37317,7 +37329,7 @@
       <c r="N347" s="21"/>
       <c r="O347" s="21"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="20"/>
       <c r="B348" s="21"/>
       <c r="C348" s="22"/>
@@ -37334,7 +37346,7 @@
       <c r="N348" s="21"/>
       <c r="O348" s="21"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
       <c r="B349" s="21"/>
       <c r="C349" s="22"/>
@@ -37351,7 +37363,7 @@
       <c r="N349" s="21"/>
       <c r="O349" s="21"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="20"/>
       <c r="B350" s="21"/>
       <c r="C350" s="22"/>
@@ -37368,7 +37380,7 @@
       <c r="N350" s="21"/>
       <c r="O350" s="21"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="21"/>
       <c r="C351" s="22"/>
@@ -37385,7 +37397,7 @@
       <c r="N351" s="21"/>
       <c r="O351" s="21"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="B352" s="21"/>
       <c r="C352" s="22"/>
@@ -37402,7 +37414,7 @@
       <c r="N352" s="21"/>
       <c r="O352" s="21"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="22"/>
@@ -37419,7 +37431,7 @@
       <c r="N353" s="21"/>
       <c r="O353" s="21"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="20"/>
       <c r="B354" s="21"/>
       <c r="C354" s="22"/>
@@ -37436,7 +37448,7 @@
       <c r="N354" s="21"/>
       <c r="O354" s="21"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
       <c r="B355" s="21"/>
       <c r="C355" s="22"/>
@@ -37453,7 +37465,7 @@
       <c r="N355" s="21"/>
       <c r="O355" s="21"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
       <c r="B356" s="21"/>
       <c r="C356" s="22"/>
@@ -37470,7 +37482,7 @@
       <c r="N356" s="21"/>
       <c r="O356" s="21"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="20"/>
       <c r="B357" s="21"/>
       <c r="C357" s="22"/>
@@ -37487,7 +37499,7 @@
       <c r="N357" s="21"/>
       <c r="O357" s="21"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="20"/>
       <c r="B358" s="21"/>
       <c r="C358" s="22"/>
@@ -37504,7 +37516,7 @@
       <c r="N358" s="21"/>
       <c r="O358" s="21"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="B359" s="21"/>
       <c r="C359" s="22"/>
@@ -37521,7 +37533,7 @@
       <c r="N359" s="21"/>
       <c r="O359" s="21"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="B360" s="21"/>
       <c r="C360" s="22"/>
@@ -37538,7 +37550,7 @@
       <c r="N360" s="21"/>
       <c r="O360" s="21"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="20"/>
       <c r="B361" s="21"/>
       <c r="C361" s="22"/>
@@ -37555,7 +37567,7 @@
       <c r="N361" s="21"/>
       <c r="O361" s="21"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="B362" s="21"/>
       <c r="C362" s="22"/>
@@ -37572,7 +37584,7 @@
       <c r="N362" s="21"/>
       <c r="O362" s="21"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="20"/>
       <c r="B363" s="21"/>
       <c r="C363" s="22"/>
@@ -37589,7 +37601,7 @@
       <c r="N363" s="21"/>
       <c r="O363" s="21"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="20"/>
       <c r="B364" s="21"/>
       <c r="C364" s="22"/>
@@ -37606,7 +37618,7 @@
       <c r="N364" s="21"/>
       <c r="O364" s="21"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="20"/>
       <c r="B365" s="21"/>
       <c r="C365" s="22"/>
@@ -37623,7 +37635,7 @@
       <c r="N365" s="21"/>
       <c r="O365" s="21"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="20"/>
       <c r="B366" s="21"/>
       <c r="C366" s="22"/>
@@ -37640,7 +37652,7 @@
       <c r="N366" s="21"/>
       <c r="O366" s="21"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="B367" s="21"/>
       <c r="C367" s="22"/>
@@ -37657,7 +37669,7 @@
       <c r="N367" s="21"/>
       <c r="O367" s="21"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="B368" s="21"/>
       <c r="C368" s="22"/>
@@ -37674,7 +37686,7 @@
       <c r="N368" s="21"/>
       <c r="O368" s="21"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="20"/>
       <c r="B369" s="21"/>
       <c r="C369" s="22"/>
@@ -37691,7 +37703,7 @@
       <c r="N369" s="21"/>
       <c r="O369" s="21"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="20"/>
       <c r="B370" s="21"/>
       <c r="C370" s="22"/>
@@ -37708,7 +37720,7 @@
       <c r="N370" s="21"/>
       <c r="O370" s="21"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="20"/>
       <c r="B371" s="21"/>
       <c r="C371" s="22"/>
@@ -37725,7 +37737,7 @@
       <c r="N371" s="21"/>
       <c r="O371" s="21"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
       <c r="B372" s="21"/>
       <c r="C372" s="22"/>
@@ -37742,7 +37754,7 @@
       <c r="N372" s="21"/>
       <c r="O372" s="21"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="B373" s="21"/>
       <c r="C373" s="22"/>
@@ -37759,7 +37771,7 @@
       <c r="N373" s="21"/>
       <c r="O373" s="21"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="20"/>
       <c r="B374" s="21"/>
       <c r="C374" s="22"/>
@@ -37776,7 +37788,7 @@
       <c r="N374" s="21"/>
       <c r="O374" s="21"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="B375" s="21"/>
       <c r="C375" s="22"/>
@@ -37793,7 +37805,7 @@
       <c r="N375" s="21"/>
       <c r="O375" s="21"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="B376" s="21"/>
       <c r="C376" s="22"/>
@@ -37810,7 +37822,7 @@
       <c r="N376" s="21"/>
       <c r="O376" s="21"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="20"/>
       <c r="B377" s="21"/>
       <c r="C377" s="22"/>
@@ -37827,7 +37839,7 @@
       <c r="N377" s="21"/>
       <c r="O377" s="21"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="B378" s="21"/>
       <c r="C378" s="22"/>
@@ -37844,7 +37856,7 @@
       <c r="N378" s="21"/>
       <c r="O378" s="21"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
       <c r="B379" s="21"/>
       <c r="C379" s="22"/>
@@ -37861,7 +37873,7 @@
       <c r="N379" s="21"/>
       <c r="O379" s="21"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="20"/>
       <c r="B380" s="21"/>
       <c r="C380" s="22"/>
@@ -37878,7 +37890,7 @@
       <c r="N380" s="21"/>
       <c r="O380" s="21"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="20"/>
       <c r="B381" s="21"/>
       <c r="C381" s="22"/>
@@ -37895,7 +37907,7 @@
       <c r="N381" s="21"/>
       <c r="O381" s="21"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="20"/>
       <c r="B382" s="21"/>
       <c r="C382" s="22"/>
@@ -37912,7 +37924,7 @@
       <c r="N382" s="21"/>
       <c r="O382" s="21"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="B383" s="21"/>
       <c r="C383" s="22"/>
@@ -37929,7 +37941,7 @@
       <c r="N383" s="21"/>
       <c r="O383" s="21"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="B384" s="21"/>
       <c r="C384" s="22"/>
@@ -37946,7 +37958,7 @@
       <c r="N384" s="21"/>
       <c r="O384" s="21"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="20"/>
       <c r="B385" s="21"/>
       <c r="C385" s="22"/>
@@ -37963,7 +37975,7 @@
       <c r="N385" s="21"/>
       <c r="O385" s="21"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="20"/>
       <c r="B386" s="21"/>
       <c r="C386" s="22"/>
@@ -37980,7 +37992,7 @@
       <c r="N386" s="21"/>
       <c r="O386" s="21"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="20"/>
       <c r="B387" s="21"/>
       <c r="C387" s="22"/>
@@ -37997,7 +38009,7 @@
       <c r="N387" s="21"/>
       <c r="O387" s="21"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="20"/>
       <c r="B388" s="21"/>
       <c r="C388" s="22"/>
@@ -38014,7 +38026,7 @@
       <c r="N388" s="21"/>
       <c r="O388" s="21"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="20"/>
       <c r="B389" s="21"/>
       <c r="C389" s="22"/>
@@ -38031,7 +38043,7 @@
       <c r="N389" s="21"/>
       <c r="O389" s="21"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="20"/>
       <c r="B390" s="21"/>
       <c r="C390" s="22"/>
@@ -38048,7 +38060,7 @@
       <c r="N390" s="21"/>
       <c r="O390" s="21"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
       <c r="B391" s="21"/>
       <c r="C391" s="22"/>
@@ -38065,7 +38077,7 @@
       <c r="N391" s="21"/>
       <c r="O391" s="21"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="B392" s="21"/>
       <c r="C392" s="22"/>
@@ -38082,7 +38094,7 @@
       <c r="N392" s="21"/>
       <c r="O392" s="21"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="20"/>
       <c r="B393" s="21"/>
       <c r="C393" s="22"/>
@@ -38099,7 +38111,7 @@
       <c r="N393" s="21"/>
       <c r="O393" s="21"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="20"/>
       <c r="B394" s="21"/>
       <c r="C394" s="22"/>
@@ -38116,7 +38128,7 @@
       <c r="N394" s="21"/>
       <c r="O394" s="21"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="20"/>
       <c r="B395" s="21"/>
       <c r="C395" s="22"/>
@@ -38133,7 +38145,7 @@
       <c r="N395" s="21"/>
       <c r="O395" s="21"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="20"/>
       <c r="B396" s="21"/>
       <c r="C396" s="22"/>
@@ -38150,7 +38162,7 @@
       <c r="N396" s="21"/>
       <c r="O396" s="21"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="20"/>
       <c r="B397" s="21"/>
       <c r="C397" s="22"/>
@@ -38167,7 +38179,7 @@
       <c r="N397" s="21"/>
       <c r="O397" s="21"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="20"/>
       <c r="B398" s="21"/>
       <c r="C398" s="22"/>
@@ -38184,7 +38196,7 @@
       <c r="N398" s="21"/>
       <c r="O398" s="21"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="20"/>
       <c r="B399" s="21"/>
       <c r="C399" s="22"/>
@@ -38201,7 +38213,7 @@
       <c r="N399" s="21"/>
       <c r="O399" s="21"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="20"/>
       <c r="B400" s="21"/>
       <c r="C400" s="22"/>
@@ -38218,7 +38230,7 @@
       <c r="N400" s="21"/>
       <c r="O400" s="21"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="20"/>
       <c r="B401" s="21"/>
       <c r="C401" s="22"/>
@@ -38235,7 +38247,7 @@
       <c r="N401" s="21"/>
       <c r="O401" s="21"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="20"/>
       <c r="B402" s="21"/>
       <c r="C402" s="22"/>
@@ -38252,7 +38264,7 @@
       <c r="N402" s="21"/>
       <c r="O402" s="21"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="20"/>
       <c r="B403" s="21"/>
       <c r="C403" s="22"/>
@@ -38269,7 +38281,7 @@
       <c r="N403" s="21"/>
       <c r="O403" s="21"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="20"/>
       <c r="B404" s="21"/>
       <c r="C404" s="22"/>
@@ -38286,7 +38298,7 @@
       <c r="N404" s="21"/>
       <c r="O404" s="21"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="20"/>
       <c r="B405" s="21"/>
       <c r="C405" s="22"/>
@@ -38303,7 +38315,7 @@
       <c r="N405" s="21"/>
       <c r="O405" s="21"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="20"/>
       <c r="B406" s="21"/>
       <c r="C406" s="22"/>
@@ -38320,7 +38332,7 @@
       <c r="N406" s="21"/>
       <c r="O406" s="21"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
       <c r="B407" s="21"/>
       <c r="C407" s="22"/>
@@ -38337,7 +38349,7 @@
       <c r="N407" s="21"/>
       <c r="O407" s="21"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="20"/>
       <c r="B408" s="21"/>
       <c r="C408" s="22"/>
@@ -38354,7 +38366,7 @@
       <c r="N408" s="21"/>
       <c r="O408" s="21"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="20"/>
       <c r="B409" s="21"/>
       <c r="C409" s="22"/>
@@ -38371,7 +38383,7 @@
       <c r="N409" s="21"/>
       <c r="O409" s="21"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="20"/>
       <c r="B410" s="21"/>
       <c r="C410" s="22"/>
@@ -38388,7 +38400,7 @@
       <c r="N410" s="21"/>
       <c r="O410" s="21"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="20"/>
       <c r="B411" s="21"/>
       <c r="C411" s="22"/>
@@ -38405,7 +38417,7 @@
       <c r="N411" s="21"/>
       <c r="O411" s="21"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
       <c r="B412" s="21"/>
       <c r="C412" s="22"/>
@@ -38422,7 +38434,7 @@
       <c r="N412" s="21"/>
       <c r="O412" s="21"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="20"/>
       <c r="B413" s="21"/>
       <c r="C413" s="22"/>
@@ -38439,7 +38451,7 @@
       <c r="N413" s="21"/>
       <c r="O413" s="21"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="20"/>
       <c r="B414" s="21"/>
       <c r="C414" s="22"/>
@@ -38456,7 +38468,7 @@
       <c r="N414" s="21"/>
       <c r="O414" s="21"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="20"/>
       <c r="B415" s="21"/>
       <c r="C415" s="22"/>
@@ -38473,7 +38485,7 @@
       <c r="N415" s="21"/>
       <c r="O415" s="21"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="20"/>
       <c r="B416" s="21"/>
       <c r="C416" s="22"/>
@@ -38490,7 +38502,7 @@
       <c r="N416" s="21"/>
       <c r="O416" s="21"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="20"/>
       <c r="B417" s="21"/>
       <c r="C417" s="22"/>
@@ -38507,7 +38519,7 @@
       <c r="N417" s="21"/>
       <c r="O417" s="21"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="20"/>
       <c r="B418" s="21"/>
       <c r="C418" s="22"/>
@@ -38524,7 +38536,7 @@
       <c r="N418" s="21"/>
       <c r="O418" s="21"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="20"/>
       <c r="B419" s="21"/>
       <c r="C419" s="22"/>
@@ -38541,7 +38553,7 @@
       <c r="N419" s="21"/>
       <c r="O419" s="21"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="20"/>
       <c r="B420" s="21"/>
       <c r="C420" s="22"/>
@@ -38558,7 +38570,7 @@
       <c r="N420" s="21"/>
       <c r="O420" s="21"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="20"/>
       <c r="B421" s="21"/>
       <c r="C421" s="22"/>
@@ -38575,7 +38587,7 @@
       <c r="N421" s="21"/>
       <c r="O421" s="21"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="20"/>
       <c r="B422" s="21"/>
       <c r="C422" s="22"/>
@@ -38592,7 +38604,7 @@
       <c r="N422" s="21"/>
       <c r="O422" s="21"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="20"/>
       <c r="B423" s="21"/>
       <c r="C423" s="22"/>
@@ -38609,7 +38621,7 @@
       <c r="N423" s="21"/>
       <c r="O423" s="21"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="20"/>
       <c r="B424" s="21"/>
       <c r="C424" s="22"/>
@@ -38626,7 +38638,7 @@
       <c r="N424" s="21"/>
       <c r="O424" s="21"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="20"/>
       <c r="B425" s="21"/>
       <c r="C425" s="22"/>
@@ -38643,7 +38655,7 @@
       <c r="N425" s="21"/>
       <c r="O425" s="21"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="20"/>
       <c r="B426" s="21"/>
       <c r="C426" s="22"/>
@@ -38660,7 +38672,7 @@
       <c r="N426" s="21"/>
       <c r="O426" s="21"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="20"/>
       <c r="B427" s="21"/>
       <c r="C427" s="22"/>
@@ -38677,7 +38689,7 @@
       <c r="N427" s="21"/>
       <c r="O427" s="21"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="20"/>
       <c r="B428" s="21"/>
       <c r="C428" s="22"/>
@@ -38694,7 +38706,7 @@
       <c r="N428" s="21"/>
       <c r="O428" s="21"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="20"/>
       <c r="B429" s="21"/>
       <c r="C429" s="22"/>
@@ -38711,7 +38723,7 @@
       <c r="N429" s="21"/>
       <c r="O429" s="21"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="20"/>
       <c r="B430" s="21"/>
       <c r="C430" s="22"/>
@@ -38728,7 +38740,7 @@
       <c r="N430" s="21"/>
       <c r="O430" s="21"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="20"/>
       <c r="B431" s="21"/>
       <c r="C431" s="22"/>
@@ -38745,7 +38757,7 @@
       <c r="N431" s="21"/>
       <c r="O431" s="21"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
       <c r="B432" s="21"/>
       <c r="C432" s="22"/>
@@ -38762,7 +38774,7 @@
       <c r="N432" s="21"/>
       <c r="O432" s="21"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="20"/>
       <c r="B433" s="21"/>
       <c r="C433" s="22"/>
@@ -38779,7 +38791,7 @@
       <c r="N433" s="21"/>
       <c r="O433" s="21"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="20"/>
       <c r="B434" s="21"/>
       <c r="C434" s="22"/>
@@ -38796,7 +38808,7 @@
       <c r="N434" s="21"/>
       <c r="O434" s="21"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="20"/>
       <c r="B435" s="21"/>
       <c r="C435" s="22"/>
@@ -38813,7 +38825,7 @@
       <c r="N435" s="21"/>
       <c r="O435" s="21"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="20"/>
       <c r="B436" s="21"/>
       <c r="C436" s="22"/>
@@ -38830,7 +38842,7 @@
       <c r="N436" s="21"/>
       <c r="O436" s="21"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="20"/>
       <c r="B437" s="21"/>
       <c r="C437" s="22"/>
@@ -38847,7 +38859,7 @@
       <c r="N437" s="21"/>
       <c r="O437" s="21"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="20"/>
       <c r="B438" s="21"/>
       <c r="C438" s="22"/>
@@ -38864,7 +38876,7 @@
       <c r="N438" s="21"/>
       <c r="O438" s="21"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="20"/>
       <c r="B439" s="21"/>
       <c r="C439" s="22"/>
@@ -38881,7 +38893,7 @@
       <c r="N439" s="21"/>
       <c r="O439" s="21"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="20"/>
       <c r="B440" s="21"/>
       <c r="C440" s="22"/>
@@ -38898,7 +38910,7 @@
       <c r="N440" s="21"/>
       <c r="O440" s="21"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="20"/>
       <c r="B441" s="21"/>
       <c r="C441" s="22"/>
@@ -38915,7 +38927,7 @@
       <c r="N441" s="21"/>
       <c r="O441" s="21"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="20"/>
       <c r="B442" s="21"/>
       <c r="C442" s="22"/>
@@ -38932,7 +38944,7 @@
       <c r="N442" s="21"/>
       <c r="O442" s="21"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="20"/>
       <c r="B443" s="21"/>
       <c r="C443" s="22"/>
@@ -38949,7 +38961,7 @@
       <c r="N443" s="21"/>
       <c r="O443" s="21"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="20"/>
       <c r="B444" s="21"/>
       <c r="C444" s="22"/>
@@ -38966,7 +38978,7 @@
       <c r="N444" s="21"/>
       <c r="O444" s="21"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="20"/>
       <c r="B445" s="21"/>
       <c r="C445" s="22"/>
@@ -38983,7 +38995,7 @@
       <c r="N445" s="21"/>
       <c r="O445" s="21"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="20"/>
       <c r="B446" s="21"/>
       <c r="C446" s="22"/>
@@ -39000,7 +39012,7 @@
       <c r="N446" s="21"/>
       <c r="O446" s="21"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="20"/>
       <c r="B447" s="21"/>
       <c r="C447" s="22"/>
@@ -39017,7 +39029,7 @@
       <c r="N447" s="21"/>
       <c r="O447" s="21"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="20"/>
       <c r="B448" s="21"/>
       <c r="C448" s="22"/>
@@ -39034,7 +39046,7 @@
       <c r="N448" s="21"/>
       <c r="O448" s="21"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="20"/>
       <c r="B449" s="21"/>
       <c r="C449" s="22"/>
@@ -39051,7 +39063,7 @@
       <c r="N449" s="21"/>
       <c r="O449" s="21"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="20"/>
       <c r="B450" s="21"/>
       <c r="C450" s="22"/>
@@ -39068,7 +39080,7 @@
       <c r="N450" s="21"/>
       <c r="O450" s="21"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="20"/>
       <c r="B451" s="21"/>
       <c r="C451" s="22"/>
@@ -39085,7 +39097,7 @@
       <c r="N451" s="21"/>
       <c r="O451" s="21"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="20"/>
       <c r="B452" s="21"/>
       <c r="C452" s="22"/>
@@ -39102,7 +39114,7 @@
       <c r="N452" s="21"/>
       <c r="O452" s="21"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="20"/>
       <c r="B453" s="21"/>
       <c r="C453" s="22"/>
@@ -39119,7 +39131,7 @@
       <c r="N453" s="21"/>
       <c r="O453" s="21"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="20"/>
       <c r="B454" s="21"/>
       <c r="C454" s="22"/>
@@ -39136,7 +39148,7 @@
       <c r="N454" s="21"/>
       <c r="O454" s="21"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="20"/>
       <c r="B455" s="21"/>
       <c r="C455" s="22"/>
@@ -39153,7 +39165,7 @@
       <c r="N455" s="21"/>
       <c r="O455" s="21"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="20"/>
       <c r="B456" s="21"/>
       <c r="C456" s="22"/>
@@ -39170,7 +39182,7 @@
       <c r="N456" s="21"/>
       <c r="O456" s="21"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="20"/>
       <c r="B457" s="21"/>
       <c r="C457" s="22"/>
@@ -39187,7 +39199,7 @@
       <c r="N457" s="21"/>
       <c r="O457" s="21"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="20"/>
       <c r="B458" s="21"/>
       <c r="C458" s="22"/>
@@ -39204,7 +39216,7 @@
       <c r="N458" s="21"/>
       <c r="O458" s="21"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="20"/>
       <c r="B459" s="21"/>
       <c r="C459" s="22"/>
@@ -39221,7 +39233,7 @@
       <c r="N459" s="21"/>
       <c r="O459" s="21"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="20"/>
       <c r="B460" s="21"/>
       <c r="C460" s="22"/>
@@ -39238,7 +39250,7 @@
       <c r="N460" s="21"/>
       <c r="O460" s="21"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="20"/>
       <c r="B461" s="21"/>
       <c r="C461" s="22"/>
@@ -39255,7 +39267,7 @@
       <c r="N461" s="21"/>
       <c r="O461" s="21"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="20"/>
       <c r="B462" s="21"/>
       <c r="C462" s="22"/>
@@ -39276,21 +39288,21 @@
   <autoFilter ref="G1:G462" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A138:O138"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A61:O61"/>
     <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A137:O137"/>
-    <mergeCell ref="A138:O138"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A115:O115"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70:J74 J131:J136 J84:J88 J7:J8 J67:J68 J81:J82 J94:J96 J119:J121 J142:J143 J10:J16 J145:J155 J123:J129 J112:J113 J28:J49 J25 J19:J20 J98:J110 J51:J60" xr:uid="{00000000-0002-0000-0100-000000000000}">
